--- a/assets/data/_in/rules_DB.xlsx
+++ b/assets/data/_in/rules_DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="8" r:id="rId2"/>
@@ -17,12 +17,14 @@
     <sheet name="assign" sheetId="4" r:id="rId4"/>
     <sheet name="task_mapping" sheetId="10" r:id="rId5"/>
     <sheet name="mta" sheetId="9" r:id="rId6"/>
-    <sheet name="contract_ms" sheetId="7" r:id="rId7"/>
-    <sheet name="m4n-preds" sheetId="11" r:id="rId8"/>
+    <sheet name="major" sheetId="12" r:id="rId7"/>
+    <sheet name="contract_ms" sheetId="7" r:id="rId8"/>
+    <sheet name="m4n-preds" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">header!$A$1:$Q$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lines!$A$1:$K$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">major!$A$1:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mta!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">task_mapping!$A$1:$B$7</definedName>
   </definedNames>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="587">
   <si>
     <t>Rule</t>
   </si>
@@ -1404,9 +1406,6 @@
     <t>בדיקת קבלה ע״י המשתמשים</t>
   </si>
   <si>
-    <t>אישור שגיב שרביט</t>
-  </si>
-  <si>
     <t>00.50</t>
   </si>
   <si>
@@ -1756,12 +1755,71 @@
   </si>
   <si>
     <t>תוצרי ביניים ממייד-פור-נט</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>vline</t>
+  </si>
+  <si>
+    <t>vline_text</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>מצב מכרזי</t>
+  </si>
+  <si>
+    <t>מצב קיים</t>
+  </si>
+  <si>
+    <t>SRR(ARO+3)</t>
+  </si>
+  <si>
+    <t>PDR(ARO+9)</t>
+  </si>
+  <si>
+    <t>CDR(ARO+12)</t>
+  </si>
+  <si>
+    <t>FAT(ARO+34)</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>Realization</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integration(ARO+21)</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>SAT(ARO+38)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _X_D_R_-;\-* #,##0.00\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _X_D_R_-;\-* #,##0.0\ _X_D_R_-;_-* &quot;-&quot;??\ _X_D_R_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="16">
     <font>
       <sz val="12"/>
@@ -2149,7 +2207,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2158,7 +2216,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2575,6 +2633,34 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="20" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="20" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2967,7 +3053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E074B-609E-4F77-BA2D-034C7E31BA8E}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A10">
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
@@ -3016,7 +3102,7 @@
         <v>142</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>143</v>
@@ -3034,10 +3120,10 @@
         <v>159</v>
       </c>
       <c r="N1" s="139" t="s">
+        <v>484</v>
+      </c>
+      <c r="O1" s="70" t="s">
         <v>485</v>
-      </c>
-      <c r="O1" s="70" t="s">
-        <v>486</v>
       </c>
       <c r="P1" s="141" t="s">
         <v>146</v>
@@ -3065,7 +3151,7 @@
         <v>150</v>
       </c>
       <c r="K3" s="106" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -3076,7 +3162,7 @@
         <v>151</v>
       </c>
       <c r="H4" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J4" s="104" t="b">
         <v>1</v>
@@ -3094,7 +3180,7 @@
         <v>43876</v>
       </c>
       <c r="P4" s="143" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75">
@@ -3102,22 +3188,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J5" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="133" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M5" s="136" t="s">
         <v>90</v>
       </c>
       <c r="P5" s="143" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
@@ -3128,19 +3214,19 @@
         <v>153</v>
       </c>
       <c r="H6" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J6" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="133" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M6" s="136" t="s">
         <v>92</v>
       </c>
       <c r="P6" s="143" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75">
@@ -3151,19 +3237,19 @@
         <v>154</v>
       </c>
       <c r="H7" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J7" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="133" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M7" s="136" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P7" s="143" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75">
@@ -3174,19 +3260,19 @@
         <v>154</v>
       </c>
       <c r="H8" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J8" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="133" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M8" s="136" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P8" s="143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75">
@@ -3197,7 +3283,7 @@
         <v>155</v>
       </c>
       <c r="K9" s="106" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M9" s="136"/>
       <c r="P9" s="143"/>
@@ -3207,20 +3293,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="105" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H10" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J10" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="133" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M10" s="136"/>
       <c r="P10" s="143" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
@@ -3228,20 +3314,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H11" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J11" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M11" s="136"/>
       <c r="P11" s="143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
@@ -3249,20 +3335,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H12" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J12" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="133" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M12" s="136"/>
       <c r="P12" s="143" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75">
@@ -3270,20 +3356,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J13" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M13" s="136"/>
       <c r="P13" s="143" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75">
@@ -3291,20 +3377,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="105" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H14" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J14" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="133" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M14" s="136"/>
       <c r="P14" s="143" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75">
@@ -3312,20 +3398,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="105" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H15" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J15" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M15" s="136"/>
       <c r="P15" s="143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75">
@@ -3336,7 +3422,7 @@
         <v>156</v>
       </c>
       <c r="K16" s="106" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M16" s="136"/>
       <c r="P16" s="143"/>
@@ -3346,20 +3432,20 @@
         <v>3</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J17" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="133" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M17" s="136"/>
       <c r="P17" s="143" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75">
@@ -3367,20 +3453,20 @@
         <v>3</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H18" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J18" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="133" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M18" s="136"/>
       <c r="P18" s="143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75">
@@ -3388,20 +3474,20 @@
         <v>3</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J19" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="133" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M19" s="136"/>
       <c r="P19" s="143" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75">
@@ -3409,20 +3495,20 @@
         <v>3</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H20" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J20" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="133" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M20" s="136"/>
       <c r="P20" s="143" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75">
@@ -3430,20 +3516,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J21" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="133" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M21" s="136"/>
       <c r="P21" s="143" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75">
@@ -3451,20 +3537,20 @@
         <v>3</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H22" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J22" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M22" s="136"/>
       <c r="P22" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
@@ -3472,10 +3558,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K23" s="106" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
@@ -3483,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K24" s="106" t="s">
         <v>158</v>
@@ -3494,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="105" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G25" s="105"/>
       <c r="J25" s="104" t="b">
@@ -3512,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J26" s="104" t="b">
         <v>1</v>
@@ -3530,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J27" s="104" t="b">
         <v>1</v>
@@ -3548,10 +3634,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K28" s="106" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
@@ -3559,10 +3645,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="105" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K29" s="106" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
@@ -3570,10 +3656,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="105" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K30" s="106" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
@@ -3581,13 +3667,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="105" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J31" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="133" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
@@ -3595,13 +3681,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="105" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J32" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="133" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
@@ -3609,13 +3695,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J33" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
@@ -3623,13 +3709,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="105" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J34" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="133" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
@@ -3637,10 +3723,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K35" s="106" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
@@ -3648,13 +3734,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="105" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J36" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
@@ -3662,13 +3748,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="105" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J37" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="133" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
@@ -3676,13 +3762,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J38" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="133" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
@@ -3690,13 +3776,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="105" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J39" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="133" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
@@ -3704,10 +3790,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K40" s="106" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
@@ -3715,10 +3801,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="105" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K41" s="106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
@@ -3726,13 +3812,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J42" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
@@ -3740,13 +3826,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="105" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J43" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
@@ -3754,13 +3840,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="105" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J44" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
@@ -3768,13 +3854,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="105" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J45" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
@@ -3782,10 +3868,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="105" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K46" s="106" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
@@ -3793,13 +3879,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="105" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J47" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
@@ -3807,13 +3893,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="105" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J48" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
@@ -3821,13 +3907,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="105" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J49" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
@@ -3835,13 +3921,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J50" s="104" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75">
@@ -3849,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="105" t="s">
+        <v>566</v>
+      </c>
+      <c r="K51" s="106" t="s">
         <v>567</v>
-      </c>
-      <c r="K51" s="106" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75">
@@ -3860,10 +3946,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K52" s="106" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75">
@@ -7903,7 +7989,7 @@
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7932,7 +8018,7 @@
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="115" t="s">
-        <v>454</v>
+        <v>265</v>
       </c>
       <c r="B3" s="102" t="s">
         <v>247</v>
@@ -8190,8 +8276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80ACC4C-E0D6-4880-9BEF-704B4B20E70B}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="G19" sqref="G19"/>
+    <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8226,10 +8312,10 @@
         <v>92</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -8842,11 +8928,519 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5028-AD60-4C91-9CB5-C7DD50B0D883}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="148" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="153" customWidth="1"/>
+    <col min="13" max="13" width="9" style="149"/>
+    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="144" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>570</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" s="151" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1" s="151" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="151" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="71">
+        <v>44027</v>
+      </c>
+      <c r="D2" s="71">
+        <f>EDATE(C2,3)</f>
+        <v>44119</v>
+      </c>
+      <c r="E2" s="150">
+        <f t="shared" si="0" ref="E2:E15">L2*12</f>
+        <v>3.0246575342465754</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="71">
+        <v>44027</v>
+      </c>
+      <c r="I2" s="152">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <f>D2-C2</f>
+        <v>92</v>
+      </c>
+      <c r="L2">
+        <f>K2/365</f>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="P2" s="71">
+        <f>EDATE(C2,48)</f>
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="71">
+        <v>44119</v>
+      </c>
+      <c r="D3" s="71">
+        <f>EDATE(C2,9)</f>
+        <v>44301</v>
+      </c>
+      <c r="E3" s="150">
+        <f t="shared" si="0"/>
+        <v>5.9835616438356167</v>
+      </c>
+      <c r="G3" s="146" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="71">
+        <f>EDATE(H2,3)</f>
+        <v>44119</v>
+      </c>
+      <c r="I3" s="152">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1" ref="K3:K15">D3-C3</f>
+        <v>182</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2" ref="L3:L15">K3/365</f>
+        <v>0.49863013698630138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="71">
+        <f>D3</f>
+        <v>44301</v>
+      </c>
+      <c r="D4" s="71">
+        <f>EDATE(C2,12)</f>
+        <v>44392</v>
+      </c>
+      <c r="E4" s="150">
+        <f t="shared" si="0"/>
+        <v>2.9917808219178084</v>
+      </c>
+      <c r="G4" s="146" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" s="71">
+        <f>EDATE(H2,9)</f>
+        <v>44301</v>
+      </c>
+      <c r="I4" s="152">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>0.24931506849315069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="71">
+        <v>44393</v>
+      </c>
+      <c r="D5" s="71">
+        <f>EDATE(C2,21)</f>
+        <v>44666</v>
+      </c>
+      <c r="E5" s="150">
+        <f t="shared" si="0"/>
+        <v>8.9753424657534246</v>
+      </c>
+      <c r="G5" s="146" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="71">
+        <f>EDATE(H2,12)</f>
+        <v>44392</v>
+      </c>
+      <c r="I5" s="152">
+        <v>-25</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.74794520547945209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="71">
+        <v>44667</v>
+      </c>
+      <c r="D6" s="71">
+        <f>EDATE($C$2,34)</f>
+        <v>45061</v>
+      </c>
+      <c r="E6" s="150">
+        <f t="shared" si="0"/>
+        <v>12.953424657534246</v>
+      </c>
+      <c r="G6" s="146" t="s">
+        <v>584</v>
+      </c>
+      <c r="H6" s="71">
+        <f>EDATE(H2,21)</f>
+        <v>44666</v>
+      </c>
+      <c r="I6" s="152">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>394</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.0794520547945206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="71">
+        <f>D6</f>
+        <v>45061</v>
+      </c>
+      <c r="D7" s="71">
+        <f>EDATE(C2,38)</f>
+        <v>45184</v>
+      </c>
+      <c r="E7" s="150">
+        <f t="shared" si="0"/>
+        <v>4.043835616438356</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H7" s="71">
+        <f>C7</f>
+        <v>45061</v>
+      </c>
+      <c r="I7" s="152">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.33698630136986302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="71">
+        <v>45184</v>
+      </c>
+      <c r="D8" s="71">
+        <f>EDATE(C2,42)</f>
+        <v>45306</v>
+      </c>
+      <c r="E8" s="150">
+        <f t="shared" si="0"/>
+        <v>4.0109589041095894</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" s="71">
+        <v>45184</v>
+      </c>
+      <c r="I8" s="152">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.33424657534246577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="71">
+        <v>44027</v>
+      </c>
+      <c r="D9" s="71">
+        <v>44256</v>
+      </c>
+      <c r="E9" s="150">
+        <f t="shared" si="0"/>
+        <v>7.5287671232876709</v>
+      </c>
+      <c r="I9" s="152"/>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>229</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.62739726027397258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="71">
+        <v>44256</v>
+      </c>
+      <c r="D10" s="71">
+        <v>44438</v>
+      </c>
+      <c r="E10" s="150">
+        <f t="shared" si="0"/>
+        <v>5.9835616438356167</v>
+      </c>
+      <c r="I10" s="152"/>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0.49863013698630138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="71">
+        <v>44438</v>
+      </c>
+      <c r="D11" s="71">
+        <v>44530</v>
+      </c>
+      <c r="E11" s="150">
+        <f t="shared" si="0"/>
+        <v>3.0246575342465754</v>
+      </c>
+      <c r="I11" s="152"/>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0.25205479452054796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C12" s="71">
+        <v>44531</v>
+      </c>
+      <c r="D12" s="71">
+        <v>44804</v>
+      </c>
+      <c r="E12" s="150">
+        <f t="shared" si="0"/>
+        <v>8.9753424657534246</v>
+      </c>
+      <c r="I12" s="152"/>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.74794520547945209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" s="71">
+        <v>44804</v>
+      </c>
+      <c r="D13" s="71">
+        <v>45062</v>
+      </c>
+      <c r="E13" s="150">
+        <f t="shared" si="0"/>
+        <v>8.4821917808219176</v>
+      </c>
+      <c r="I13" s="152"/>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.70684931506849313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="71">
+        <v>45062</v>
+      </c>
+      <c r="D14" s="71">
+        <v>45184</v>
+      </c>
+      <c r="E14" s="150">
+        <f t="shared" si="0"/>
+        <v>4.0109589041095894</v>
+      </c>
+      <c r="I14" s="152"/>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.33424657534246577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" s="71">
+        <v>45184</v>
+      </c>
+      <c r="D15" s="71">
+        <v>45306</v>
+      </c>
+      <c r="E15" s="150">
+        <f t="shared" si="0"/>
+        <v>4.0109589041095894</v>
+      </c>
+      <c r="I15" s="152"/>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0.33424657534246577</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA99E29-ADE8-440B-B569-9A2CC19B6254}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="topLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9340,7 +9934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1994BEF-906B-41BA-87A7-6C4D42B3E79B}">
   <dimension ref="A1:C86"/>
   <sheetViews>
@@ -9528,7 +10122,7 @@
         <v>359</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9539,7 +10133,7 @@
         <v>360</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9550,7 +10144,7 @@
         <v>362</v>
       </c>
       <c r="C18" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9561,7 +10155,7 @@
         <v>363</v>
       </c>
       <c r="C19" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9572,7 +10166,7 @@
         <v>364</v>
       </c>
       <c r="C20" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9583,7 +10177,7 @@
         <v>365</v>
       </c>
       <c r="C21" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9594,7 +10188,7 @@
         <v>367</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9605,7 +10199,7 @@
         <v>369</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9616,7 +10210,7 @@
         <v>371</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9627,7 +10221,7 @@
         <v>373</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9638,7 +10232,7 @@
         <v>375</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9649,7 +10243,7 @@
         <v>376</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9660,7 +10254,7 @@
         <v>378</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -9671,7 +10265,7 @@
         <v>379</v>
       </c>
       <c r="C29" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -9682,7 +10276,7 @@
         <v>380</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -9693,7 +10287,7 @@
         <v>381</v>
       </c>
       <c r="C31" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -9704,7 +10298,7 @@
         <v>382</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9715,7 +10309,7 @@
         <v>384</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9726,7 +10320,7 @@
         <v>386</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9737,7 +10331,7 @@
         <v>388</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9748,7 +10342,7 @@
         <v>390</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9759,7 +10353,7 @@
         <v>392</v>
       </c>
       <c r="C37" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9770,7 +10364,7 @@
         <v>391</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9781,7 +10375,7 @@
         <v>394</v>
       </c>
       <c r="C39" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9792,7 +10386,7 @@
         <v>395</v>
       </c>
       <c r="C40" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9803,7 +10397,7 @@
         <v>397</v>
       </c>
       <c r="C41" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9814,7 +10408,7 @@
         <v>398</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9825,7 +10419,7 @@
         <v>399</v>
       </c>
       <c r="C43" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9836,7 +10430,7 @@
         <v>400</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9847,7 +10441,7 @@
         <v>401</v>
       </c>
       <c r="C45" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9858,7 +10452,7 @@
         <v>402</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9869,7 +10463,7 @@
         <v>403</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9880,7 +10474,7 @@
         <v>405</v>
       </c>
       <c r="C48" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9891,7 +10485,7 @@
         <v>406</v>
       </c>
       <c r="C49" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9902,7 +10496,7 @@
         <v>407</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9913,7 +10507,7 @@
         <v>408</v>
       </c>
       <c r="C51" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9924,7 +10518,7 @@
         <v>409</v>
       </c>
       <c r="C52" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9935,7 +10529,7 @@
         <v>410</v>
       </c>
       <c r="C53" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9946,7 +10540,7 @@
         <v>411</v>
       </c>
       <c r="C54" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9957,7 +10551,7 @@
         <v>412</v>
       </c>
       <c r="C55" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9968,7 +10562,7 @@
         <v>414</v>
       </c>
       <c r="C56" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9979,7 +10573,7 @@
         <v>415</v>
       </c>
       <c r="C57" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="104" customFormat="1" ht="30">
@@ -9990,7 +10584,7 @@
         <v>416</v>
       </c>
       <c r="C58" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="104" customFormat="1" ht="30">
@@ -10001,7 +10595,7 @@
         <v>417</v>
       </c>
       <c r="C59" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="104" customFormat="1" ht="30">
@@ -10012,7 +10606,7 @@
         <v>419</v>
       </c>
       <c r="C60" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="104" customFormat="1" ht="30">
@@ -10023,7 +10617,7 @@
         <v>418</v>
       </c>
       <c r="C61" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="104" customFormat="1" ht="60">
@@ -10056,7 +10650,7 @@
         <v>424</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10067,7 +10661,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10078,7 +10672,7 @@
         <v>427</v>
       </c>
       <c r="C66" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10089,7 +10683,7 @@
         <v>428</v>
       </c>
       <c r="C67" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10100,7 +10694,7 @@
         <v>430</v>
       </c>
       <c r="C68" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10111,7 +10705,7 @@
         <v>432</v>
       </c>
       <c r="C69" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10122,7 +10716,7 @@
         <v>434</v>
       </c>
       <c r="C70" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="104" customFormat="1" ht="15.75">
@@ -10144,7 +10738,7 @@
         <v>437</v>
       </c>
       <c r="C72" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10155,7 +10749,7 @@
         <v>438</v>
       </c>
       <c r="C73" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10166,7 +10760,7 @@
         <v>439</v>
       </c>
       <c r="C74" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10177,7 +10771,7 @@
         <v>441</v>
       </c>
       <c r="C75" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10188,7 +10782,7 @@
         <v>442</v>
       </c>
       <c r="C76" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10199,7 +10793,7 @@
         <v>443</v>
       </c>
       <c r="C77" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10210,7 +10804,7 @@
         <v>444</v>
       </c>
       <c r="C78" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10221,7 +10815,7 @@
         <v>445</v>
       </c>
       <c r="C79" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10232,7 +10826,7 @@
         <v>446</v>
       </c>
       <c r="C80" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10243,7 +10837,7 @@
         <v>447</v>
       </c>
       <c r="C81" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10254,7 +10848,7 @@
         <v>448</v>
       </c>
       <c r="C82" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10265,7 +10859,7 @@
         <v>449</v>
       </c>
       <c r="C83" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10276,7 +10870,7 @@
         <v>450</v>
       </c>
       <c r="C84" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10287,7 +10881,7 @@
         <v>451</v>
       </c>
       <c r="C85" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="104" customFormat="1" ht="45">
@@ -10298,7 +10892,7 @@
         <v>452</v>
       </c>
       <c r="C86" s="111" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/_in/rules_DB.xlsx
+++ b/assets/data/_in/rules_DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="8" r:id="rId2"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lines!$A$1:$K$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">major!$A$1:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mta!$A$1:$F$27</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">task_mapping!$A$1:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">task_mapping!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="586">
   <si>
     <t>Rule</t>
   </si>
@@ -1028,9 +1028,6 @@
   </si>
   <si>
     <t>Prod</t>
-  </si>
-  <si>
-    <t>Dev</t>
   </si>
   <si>
     <t>xRN</t>
@@ -2506,161 +2503,161 @@
       <alignment horizontal="center" vertical="center"/>
       <protection/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="2"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="21" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="20" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="20" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="2"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1">
-      <alignment/>
-      <protection/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="21" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="20" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="20" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3060,23 +3057,23 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="104" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="104" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="104" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="104" customWidth="1"/>
-    <col min="7" max="7" width="13" style="104" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="104" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="8.375" style="104" customWidth="1"/>
-    <col min="11" max="11" width="61.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="104" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="135" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="140" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="107" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="142" customWidth="1"/>
-    <col min="17" max="17" width="10.75" style="104" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="104"/>
+    <col min="4" max="4" width="9.375" style="103" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="103" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="103" customWidth="1"/>
+    <col min="7" max="7" width="13" style="103" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="103" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="103" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="61.125" style="103" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="103" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="134" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="139" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="106" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="141" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="103" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5">
@@ -3102,7 +3099,7 @@
         <v>142</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>143</v>
@@ -3116,16 +3113,16 @@
       <c r="L1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="133" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="139" t="s">
+      <c r="N1" s="138" t="s">
+        <v>483</v>
+      </c>
+      <c r="O1" s="70" t="s">
         <v>484</v>
       </c>
-      <c r="O1" s="70" t="s">
-        <v>485</v>
-      </c>
-      <c r="P1" s="141" t="s">
+      <c r="P1" s="140" t="s">
         <v>146</v>
       </c>
       <c r="Q1" s="70" t="s">
@@ -3136,10 +3133,10 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="105" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3147,431 +3144,431 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="106" t="s">
-        <v>486</v>
+      <c r="K3" s="105" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J4" s="104" t="b">
+      <c r="H4" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J4" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="133" t="s">
+      <c r="K4" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="M4" s="135" t="s">
+      <c r="M4" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="N4" s="140">
+      <c r="N4" s="139">
         <v>1</v>
       </c>
-      <c r="O4" s="107">
+      <c r="O4" s="106">
         <v>43876</v>
       </c>
-      <c r="P4" s="143" t="s">
-        <v>561</v>
+      <c r="P4" s="142" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="105" t="s">
-        <v>493</v>
-      </c>
-      <c r="H5" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J5" s="104" t="b">
+      <c r="B5" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="133" t="s">
+      <c r="K5" s="132" t="s">
+        <v>486</v>
+      </c>
+      <c r="M5" s="135" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="142" t="s">
         <v>487</v>
-      </c>
-      <c r="M5" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="P5" s="143" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J6" s="104" t="b">
+      <c r="H6" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J6" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="133" t="s">
+      <c r="K6" s="132" t="s">
+        <v>488</v>
+      </c>
+      <c r="M6" s="135" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="142" t="s">
         <v>489</v>
-      </c>
-      <c r="M6" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="P6" s="143" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J7" s="104" t="b">
+      <c r="H7" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J7" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="133" t="s">
-        <v>491</v>
-      </c>
-      <c r="M7" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="P7" s="143" t="s">
-        <v>522</v>
+      <c r="K7" s="132" t="s">
+        <v>490</v>
+      </c>
+      <c r="M7" s="135" t="s">
+        <v>564</v>
+      </c>
+      <c r="P7" s="142" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75">
       <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J8" s="103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="132" t="s">
+        <v>520</v>
+      </c>
+      <c r="M8" s="135" t="s">
         <v>563</v>
       </c>
-      <c r="J8" s="104" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="133" t="s">
-        <v>521</v>
-      </c>
-      <c r="M8" s="136" t="s">
-        <v>564</v>
-      </c>
-      <c r="P8" s="143" t="s">
-        <v>492</v>
+      <c r="P8" s="142" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75">
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="106" t="s">
-        <v>494</v>
-      </c>
-      <c r="M9" s="136"/>
-      <c r="P9" s="143"/>
+      <c r="K9" s="105" t="s">
+        <v>493</v>
+      </c>
+      <c r="M9" s="135"/>
+      <c r="P9" s="142"/>
     </row>
     <row r="10" spans="1:16" ht="15.75">
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="H10" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J10" s="104" t="b">
+      <c r="B10" s="104" t="s">
+        <v>522</v>
+      </c>
+      <c r="H10" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J10" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="133" t="s">
-        <v>495</v>
-      </c>
-      <c r="M10" s="136"/>
-      <c r="P10" s="143" t="s">
-        <v>501</v>
+      <c r="K10" s="132" t="s">
+        <v>494</v>
+      </c>
+      <c r="M10" s="135"/>
+      <c r="P10" s="142" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
       <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="H11" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J11" s="104" t="b">
+      <c r="B11" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="H11" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J11" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="133" t="s">
-        <v>496</v>
-      </c>
-      <c r="M11" s="136"/>
-      <c r="P11" s="143" t="s">
-        <v>502</v>
+      <c r="K11" s="132" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="135"/>
+      <c r="P11" s="142" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>525</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J12" s="104" t="b">
+      <c r="B12" s="104" t="s">
+        <v>524</v>
+      </c>
+      <c r="H12" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J12" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="133" t="s">
-        <v>497</v>
-      </c>
-      <c r="M12" s="136"/>
-      <c r="P12" s="143" t="s">
-        <v>503</v>
+      <c r="K12" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="M12" s="135"/>
+      <c r="P12" s="142" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75">
       <c r="A13" s="9">
         <v>4</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>526</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J13" s="104" t="b">
+      <c r="B13" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J13" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K13" s="133" t="s">
-        <v>498</v>
-      </c>
-      <c r="M13" s="136"/>
-      <c r="P13" s="143" t="s">
-        <v>504</v>
+      <c r="K13" s="132" t="s">
+        <v>497</v>
+      </c>
+      <c r="M13" s="135"/>
+      <c r="P13" s="142" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="105" t="s">
-        <v>527</v>
-      </c>
-      <c r="H14" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J14" s="104" t="b">
+      <c r="B14" s="104" t="s">
+        <v>526</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J14" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="133" t="s">
-        <v>499</v>
-      </c>
-      <c r="M14" s="136"/>
-      <c r="P14" s="143" t="s">
-        <v>505</v>
+      <c r="K14" s="132" t="s">
+        <v>498</v>
+      </c>
+      <c r="M14" s="135"/>
+      <c r="P14" s="142" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75">
       <c r="A15" s="9">
         <v>4</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>528</v>
-      </c>
-      <c r="H15" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J15" s="104" t="b">
+      <c r="B15" s="104" t="s">
+        <v>527</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J15" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K15" s="133" t="s">
-        <v>500</v>
-      </c>
-      <c r="M15" s="136"/>
-      <c r="P15" s="143" t="s">
-        <v>512</v>
+      <c r="K15" s="132" t="s">
+        <v>499</v>
+      </c>
+      <c r="M15" s="135"/>
+      <c r="P15" s="142" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75">
       <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="106" t="s">
-        <v>506</v>
-      </c>
-      <c r="M16" s="136"/>
-      <c r="P16" s="143"/>
+      <c r="K16" s="105" t="s">
+        <v>505</v>
+      </c>
+      <c r="M16" s="135"/>
+      <c r="P16" s="142"/>
     </row>
     <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="9">
         <v>3</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>529</v>
-      </c>
-      <c r="H17" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J17" s="104" t="b">
+      <c r="B17" s="104" t="s">
+        <v>528</v>
+      </c>
+      <c r="H17" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J17" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K17" s="133" t="s">
-        <v>507</v>
-      </c>
-      <c r="M17" s="136"/>
-      <c r="P17" s="143" t="s">
-        <v>513</v>
+      <c r="K17" s="132" t="s">
+        <v>506</v>
+      </c>
+      <c r="M17" s="135"/>
+      <c r="P17" s="142" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="9">
         <v>3</v>
       </c>
-      <c r="B18" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="H18" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J18" s="104" t="b">
+      <c r="B18" s="104" t="s">
+        <v>529</v>
+      </c>
+      <c r="H18" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J18" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K18" s="133" t="s">
-        <v>496</v>
-      </c>
-      <c r="M18" s="136"/>
-      <c r="P18" s="143" t="s">
-        <v>514</v>
+      <c r="K18" s="132" t="s">
+        <v>495</v>
+      </c>
+      <c r="M18" s="135"/>
+      <c r="P18" s="142" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75">
       <c r="A19" s="9">
         <v>3</v>
       </c>
-      <c r="B19" s="105" t="s">
-        <v>531</v>
-      </c>
-      <c r="H19" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J19" s="104" t="b">
+      <c r="B19" s="104" t="s">
+        <v>530</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J19" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K19" s="133" t="s">
-        <v>508</v>
-      </c>
-      <c r="M19" s="136"/>
-      <c r="P19" s="143" t="s">
-        <v>515</v>
+      <c r="K19" s="132" t="s">
+        <v>507</v>
+      </c>
+      <c r="M19" s="135"/>
+      <c r="P19" s="142" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="105" t="s">
-        <v>532</v>
-      </c>
-      <c r="H20" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J20" s="104" t="b">
+      <c r="B20" s="104" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J20" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K20" s="133" t="s">
-        <v>509</v>
-      </c>
-      <c r="M20" s="136"/>
-      <c r="P20" s="143" t="s">
-        <v>516</v>
+      <c r="K20" s="132" t="s">
+        <v>508</v>
+      </c>
+      <c r="M20" s="135"/>
+      <c r="P20" s="142" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="105" t="s">
-        <v>533</v>
-      </c>
-      <c r="H21" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J21" s="104" t="b">
+      <c r="B21" s="104" t="s">
+        <v>532</v>
+      </c>
+      <c r="H21" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J21" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K21" s="133" t="s">
-        <v>510</v>
-      </c>
-      <c r="M21" s="136"/>
-      <c r="P21" s="143" t="s">
-        <v>517</v>
+      <c r="K21" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="M21" s="135"/>
+      <c r="P21" s="142" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75">
       <c r="A22" s="9">
         <v>3</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>534</v>
-      </c>
-      <c r="H22" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J22" s="104" t="b">
+      <c r="B22" s="104" t="s">
+        <v>533</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="J22" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="133" t="s">
-        <v>511</v>
-      </c>
-      <c r="M22" s="136"/>
-      <c r="P22" s="143" t="s">
-        <v>518</v>
+      <c r="K22" s="132" t="s">
+        <v>510</v>
+      </c>
+      <c r="M22" s="135"/>
+      <c r="P22" s="142" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="9">
         <v>2</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>519</v>
-      </c>
-      <c r="K23" s="106" t="s">
-        <v>483</v>
+      <c r="B23" s="104" t="s">
+        <v>518</v>
+      </c>
+      <c r="K23" s="105" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="9">
         <v>3</v>
       </c>
-      <c r="B24" s="105" t="s">
-        <v>535</v>
-      </c>
-      <c r="K24" s="106" t="s">
+      <c r="B24" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="K24" s="105" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3579,17 +3576,17 @@
       <c r="A25" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="105" t="s">
-        <v>537</v>
-      </c>
-      <c r="G25" s="105"/>
-      <c r="J25" s="104" t="b">
+      <c r="B25" s="104" t="s">
+        <v>536</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="J25" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="108" t="s">
+      <c r="K25" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="135" t="s">
+      <c r="M25" s="134" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3597,17 +3594,17 @@
       <c r="A26" s="9">
         <v>4</v>
       </c>
-      <c r="B26" s="105" t="s">
-        <v>536</v>
-      </c>
-      <c r="J26" s="104" t="b">
+      <c r="B26" s="104" t="s">
+        <v>535</v>
+      </c>
+      <c r="J26" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="108" t="s">
+      <c r="K26" s="107" t="s">
         <v>230</v>
       </c>
-      <c r="L26" s="137"/>
-      <c r="M26" s="135" t="s">
+      <c r="L26" s="136"/>
+      <c r="M26" s="134" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3615,17 +3612,17 @@
       <c r="A27" s="9">
         <v>4</v>
       </c>
-      <c r="B27" s="105" t="s">
-        <v>538</v>
-      </c>
-      <c r="J27" s="104" t="b">
+      <c r="B27" s="104" t="s">
+        <v>537</v>
+      </c>
+      <c r="J27" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="135" t="s">
+      <c r="L27" s="136"/>
+      <c r="M27" s="134" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3633,333 +3630,333 @@
       <c r="A28" s="9">
         <v>3</v>
       </c>
-      <c r="B28" s="105" t="s">
-        <v>520</v>
-      </c>
-      <c r="K28" s="106" t="s">
-        <v>462</v>
+      <c r="B28" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="K28" s="105" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="9">
         <v>4</v>
       </c>
-      <c r="B29" s="105" t="s">
-        <v>539</v>
-      </c>
-      <c r="K29" s="106" t="s">
-        <v>463</v>
+      <c r="B29" s="104" t="s">
+        <v>538</v>
+      </c>
+      <c r="K29" s="105" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="B30" s="105" t="s">
-        <v>540</v>
-      </c>
-      <c r="K30" s="106" t="s">
-        <v>464</v>
+      <c r="B30" s="104" t="s">
+        <v>539</v>
+      </c>
+      <c r="K30" s="105" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="9">
         <v>6</v>
       </c>
-      <c r="B31" s="105" t="s">
-        <v>541</v>
-      </c>
-      <c r="J31" s="104" t="b">
+      <c r="B31" s="104" t="s">
+        <v>540</v>
+      </c>
+      <c r="J31" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="133" t="s">
-        <v>469</v>
+      <c r="K31" s="132" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="9">
         <v>6</v>
       </c>
-      <c r="B32" s="105" t="s">
-        <v>542</v>
-      </c>
-      <c r="J32" s="104" t="b">
+      <c r="B32" s="104" t="s">
+        <v>541</v>
+      </c>
+      <c r="J32" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="133" t="s">
-        <v>470</v>
+      <c r="K32" s="132" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="9">
         <v>6</v>
       </c>
-      <c r="B33" s="105" t="s">
-        <v>543</v>
-      </c>
-      <c r="J33" s="104" t="b">
+      <c r="B33" s="104" t="s">
+        <v>542</v>
+      </c>
+      <c r="J33" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K33" s="133" t="s">
-        <v>471</v>
+      <c r="K33" s="132" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="9">
         <v>6</v>
       </c>
-      <c r="B34" s="105" t="s">
-        <v>544</v>
-      </c>
-      <c r="J34" s="104" t="b">
+      <c r="B34" s="104" t="s">
+        <v>543</v>
+      </c>
+      <c r="J34" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K34" s="133" t="s">
-        <v>472</v>
+      <c r="K34" s="132" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="105" t="s">
-        <v>545</v>
-      </c>
-      <c r="K35" s="106" t="s">
-        <v>465</v>
+      <c r="B35" s="104" t="s">
+        <v>544</v>
+      </c>
+      <c r="K35" s="105" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="9">
         <v>6</v>
       </c>
-      <c r="B36" s="105" t="s">
-        <v>546</v>
-      </c>
-      <c r="J36" s="104" t="b">
+      <c r="B36" s="104" t="s">
+        <v>545</v>
+      </c>
+      <c r="J36" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K36" s="133" t="s">
-        <v>473</v>
+      <c r="K36" s="132" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="9">
         <v>6</v>
       </c>
-      <c r="B37" s="105" t="s">
-        <v>547</v>
-      </c>
-      <c r="J37" s="104" t="b">
+      <c r="B37" s="104" t="s">
+        <v>546</v>
+      </c>
+      <c r="J37" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="133" t="s">
-        <v>474</v>
+      <c r="K37" s="132" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="9">
         <v>6</v>
       </c>
-      <c r="B38" s="105" t="s">
-        <v>548</v>
-      </c>
-      <c r="J38" s="104" t="b">
+      <c r="B38" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="J38" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K38" s="133" t="s">
-        <v>475</v>
+      <c r="K38" s="132" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="9">
         <v>6</v>
       </c>
-      <c r="B39" s="105" t="s">
-        <v>549</v>
-      </c>
-      <c r="J39" s="104" t="b">
+      <c r="B39" s="104" t="s">
+        <v>548</v>
+      </c>
+      <c r="J39" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K39" s="133" t="s">
-        <v>476</v>
+      <c r="K39" s="132" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="9">
         <v>4</v>
       </c>
-      <c r="B40" s="105" t="s">
-        <v>550</v>
-      </c>
-      <c r="K40" s="106" t="s">
-        <v>466</v>
+      <c r="B40" s="104" t="s">
+        <v>549</v>
+      </c>
+      <c r="K40" s="105" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="9">
         <v>5</v>
       </c>
-      <c r="B41" s="105" t="s">
-        <v>551</v>
-      </c>
-      <c r="K41" s="106" t="s">
-        <v>467</v>
+      <c r="B41" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="K41" s="105" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="B42" s="105" t="s">
-        <v>552</v>
-      </c>
-      <c r="J42" s="104" t="b">
+      <c r="B42" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="J42" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K42" s="133" t="s">
-        <v>477</v>
+      <c r="K42" s="132" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="9">
         <v>6</v>
       </c>
-      <c r="B43" s="105" t="s">
-        <v>553</v>
-      </c>
-      <c r="J43" s="104" t="b">
+      <c r="B43" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="J43" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="133" t="s">
-        <v>478</v>
+      <c r="K43" s="132" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="105" t="s">
-        <v>554</v>
-      </c>
-      <c r="J44" s="104" t="b">
+      <c r="B44" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="J44" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K44" s="133" t="s">
-        <v>479</v>
+      <c r="K44" s="132" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="9">
         <v>6</v>
       </c>
-      <c r="B45" s="105" t="s">
-        <v>555</v>
-      </c>
-      <c r="J45" s="104" t="b">
+      <c r="B45" s="104" t="s">
+        <v>554</v>
+      </c>
+      <c r="J45" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K45" s="133" t="s">
-        <v>480</v>
+      <c r="K45" s="132" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="9">
         <v>5</v>
       </c>
-      <c r="B46" s="105" t="s">
-        <v>556</v>
-      </c>
-      <c r="K46" s="106" t="s">
-        <v>468</v>
+      <c r="B46" s="104" t="s">
+        <v>555</v>
+      </c>
+      <c r="K46" s="105" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="9">
         <v>6</v>
       </c>
-      <c r="B47" s="105" t="s">
-        <v>557</v>
-      </c>
-      <c r="J47" s="104" t="b">
+      <c r="B47" s="104" t="s">
+        <v>556</v>
+      </c>
+      <c r="J47" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K47" s="133" t="s">
-        <v>481</v>
+      <c r="K47" s="132" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
       <c r="A48" s="9">
         <v>6</v>
       </c>
-      <c r="B48" s="105" t="s">
-        <v>558</v>
-      </c>
-      <c r="J48" s="104" t="b">
+      <c r="B48" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="J48" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K48" s="133" t="s">
-        <v>481</v>
+      <c r="K48" s="132" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="9">
         <v>6</v>
       </c>
-      <c r="B49" s="105" t="s">
-        <v>559</v>
-      </c>
-      <c r="J49" s="104" t="b">
+      <c r="B49" s="104" t="s">
+        <v>558</v>
+      </c>
+      <c r="J49" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K49" s="133" t="s">
-        <v>481</v>
+      <c r="K49" s="132" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="9">
         <v>6</v>
       </c>
-      <c r="B50" s="105" t="s">
-        <v>560</v>
-      </c>
-      <c r="J50" s="104" t="b">
+      <c r="B50" s="104" t="s">
+        <v>559</v>
+      </c>
+      <c r="J50" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="K50" s="133" t="s">
-        <v>481</v>
+      <c r="K50" s="132" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="9">
         <v>2</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="K51" s="105" t="s">
         <v>566</v>
-      </c>
-      <c r="K51" s="106" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75">
       <c r="A52" s="9">
         <v>2</v>
       </c>
-      <c r="B52" s="105" t="s">
-        <v>454</v>
-      </c>
-      <c r="K52" s="106" t="s">
-        <v>568</v>
+      <c r="B52" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="K52" s="105" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75">
       <c r="A53" s="9">
         <v>1</v>
       </c>
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="K53" s="106" t="s">
+      <c r="K53" s="105" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3975,16 +3972,16 @@
   <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="81" customWidth="1"/>
-    <col min="3" max="3" width="57.5" style="130" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5" style="129" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="87" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="91" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
@@ -3999,7 +3996,7 @@
       <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="118" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="89" t="s">
@@ -4034,7 +4031,7 @@
       <c r="B2" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="119" t="s">
         <v>267</v>
       </c>
       <c r="D2" s="84" t="s">
@@ -4073,7 +4070,7 @@
       <c r="B3" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D3" s="85" t="s">
@@ -4108,7 +4105,7 @@
       <c r="B4" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="115" t="s">
         <v>270</v>
       </c>
       <c r="D4" s="85">
@@ -4147,7 +4144,7 @@
       <c r="B5" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="115" t="s">
         <v>299</v>
       </c>
       <c r="D5" s="85">
@@ -4186,7 +4183,7 @@
       <c r="B6" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="85">
@@ -4225,8 +4222,8 @@
       <c r="B7" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="116" t="s">
-        <v>453</v>
+      <c r="C7" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D7" s="85">
         <v>1</v>
@@ -4264,7 +4261,7 @@
       <c r="B8" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="85">
@@ -4303,7 +4300,7 @@
       <c r="B9" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="120" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="86" t="s">
@@ -4342,7 +4339,7 @@
       <c r="B10" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="119" t="s">
         <v>271</v>
       </c>
       <c r="D10" s="84" t="s">
@@ -4381,7 +4378,7 @@
       <c r="B11" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D11" s="85" t="s">
@@ -4416,7 +4413,7 @@
       <c r="B12" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="115" t="s">
         <v>324</v>
       </c>
       <c r="D12" s="85">
@@ -4455,7 +4452,7 @@
       <c r="B13" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>299</v>
       </c>
       <c r="D13" s="85">
@@ -4494,7 +4491,7 @@
       <c r="B14" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="85">
@@ -4533,8 +4530,8 @@
       <c r="B15" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="116" t="s">
-        <v>453</v>
+      <c r="C15" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D15" s="85">
         <v>1</v>
@@ -4572,7 +4569,7 @@
       <c r="B16" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="85">
@@ -4611,7 +4608,7 @@
       <c r="B17" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="120" t="s">
         <v>274</v>
       </c>
       <c r="D17" s="86" t="s">
@@ -4650,7 +4647,7 @@
       <c r="B18" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="119" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="84" t="s">
@@ -4689,7 +4686,7 @@
       <c r="B19" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D19" s="85" t="s">
@@ -4728,7 +4725,7 @@
       <c r="B20" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="115" t="s">
         <v>322</v>
       </c>
       <c r="D20" s="85">
@@ -4767,7 +4764,7 @@
       <c r="B21" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="115" t="s">
         <v>299</v>
       </c>
       <c r="D21" s="85">
@@ -4806,7 +4803,7 @@
       <c r="B22" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="85">
@@ -4845,8 +4842,8 @@
       <c r="B23" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="116" t="s">
-        <v>453</v>
+      <c r="C23" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D23" s="85">
         <v>1</v>
@@ -4884,7 +4881,7 @@
       <c r="B24" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="85">
@@ -4923,7 +4920,7 @@
       <c r="B25" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="120" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="86" t="s">
@@ -4962,7 +4959,7 @@
       <c r="B26" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="119" t="s">
         <v>272</v>
       </c>
       <c r="D26" s="84" t="s">
@@ -5001,7 +4998,7 @@
       <c r="B27" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D27" s="85" t="s">
@@ -5036,7 +5033,7 @@
       <c r="B28" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="115" t="s">
         <v>273</v>
       </c>
       <c r="D28" s="85">
@@ -5075,7 +5072,7 @@
       <c r="B29" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="115" t="s">
         <v>299</v>
       </c>
       <c r="D29" s="85">
@@ -5114,7 +5111,7 @@
       <c r="B30" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="85">
@@ -5153,8 +5150,8 @@
       <c r="B31" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="116" t="s">
-        <v>453</v>
+      <c r="C31" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D31" s="85">
         <v>1</v>
@@ -5192,7 +5189,7 @@
       <c r="B32" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="85">
@@ -5231,7 +5228,7 @@
       <c r="B33" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="120" t="s">
         <v>327</v>
       </c>
       <c r="D33" s="86" t="s">
@@ -5270,7 +5267,7 @@
       <c r="B34" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="121" t="s">
         <v>136</v>
       </c>
       <c r="D34" s="84" t="s">
@@ -5309,7 +5306,7 @@
       <c r="B35" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="122" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="85" t="s">
@@ -5344,7 +5341,7 @@
       <c r="B36" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="123" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="85" t="s">
@@ -5383,7 +5380,7 @@
       <c r="B37" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="123" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="85" t="s">
@@ -5422,7 +5419,7 @@
       <c r="B38" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="123" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="85" t="s">
@@ -5461,7 +5458,7 @@
       <c r="B39" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="123" t="s">
+      <c r="C39" s="122" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="85" t="s">
@@ -5500,7 +5497,7 @@
       <c r="B40" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="116" t="s">
         <v>54</v>
       </c>
       <c r="D40" s="85" t="s">
@@ -5539,7 +5536,7 @@
       <c r="B41" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="117" t="s">
+      <c r="C41" s="116" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="85" t="s">
@@ -5578,7 +5575,7 @@
       <c r="B42" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="C42" s="116" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="85" t="s">
@@ -5617,7 +5614,7 @@
       <c r="B43" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="116" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="85" t="s">
@@ -5656,7 +5653,7 @@
       <c r="B44" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D44" s="85" t="s">
@@ -5695,7 +5692,7 @@
       <c r="B45" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="116" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="85" t="s">
@@ -5734,7 +5731,7 @@
       <c r="B46" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="116" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="85" t="s">
@@ -5773,7 +5770,7 @@
       <c r="B47" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="C47" s="116" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="85" t="s">
@@ -5812,7 +5809,7 @@
       <c r="B48" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="116" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="85" t="s">
@@ -5851,7 +5848,7 @@
       <c r="B49" s="79" t="s">
         <v>248</v>
       </c>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="116" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="85" t="s">
@@ -5890,7 +5887,7 @@
       <c r="B50" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="125" t="s">
+      <c r="C50" s="124" t="s">
         <v>328</v>
       </c>
       <c r="D50" s="85" t="s">
@@ -5929,7 +5926,7 @@
       <c r="B51" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="125" t="s">
         <v>269</v>
       </c>
       <c r="D51" s="84" t="s">
@@ -5968,7 +5965,7 @@
       <c r="B52" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D52" s="85" t="s">
@@ -6003,7 +6000,7 @@
       <c r="B53" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="117" t="s">
+      <c r="C53" s="116" t="s">
         <v>323</v>
       </c>
       <c r="D53" s="85" t="s">
@@ -6042,7 +6039,7 @@
       <c r="B54" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="117" t="s">
+      <c r="C54" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D54" s="85" t="s">
@@ -6081,7 +6078,7 @@
       <c r="B55" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="116" t="s">
+      <c r="C55" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="85">
@@ -6120,8 +6117,8 @@
       <c r="B56" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="116" t="s">
-        <v>453</v>
+      <c r="C56" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D56" s="85">
         <v>1</v>
@@ -6159,7 +6156,7 @@
       <c r="B57" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D57" s="85">
@@ -6198,7 +6195,7 @@
       <c r="B58" s="80" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="124" t="s">
         <v>326</v>
       </c>
       <c r="D58" s="86" t="s">
@@ -6477,7 +6474,7 @@
         <v>228</v>
       </c>
       <c r="F65" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" s="48">
         <v>0</v>
@@ -6545,7 +6542,7 @@
       <c r="B67" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="C67" s="120" t="s">
+      <c r="C67" s="119" t="s">
         <v>275</v>
       </c>
       <c r="D67" s="84" t="s">
@@ -6584,7 +6581,7 @@
       <c r="B68" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="115" t="s">
         <v>311</v>
       </c>
       <c r="D68" s="85" t="s">
@@ -6619,7 +6616,7 @@
       <c r="B69" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C69" s="116" t="s">
+      <c r="C69" s="115" t="s">
         <v>276</v>
       </c>
       <c r="D69" s="85" t="s">
@@ -6654,7 +6651,7 @@
       <c r="B70" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C70" s="116" t="s">
+      <c r="C70" s="115" t="s">
         <v>299</v>
       </c>
       <c r="D70" s="85" t="s">
@@ -6689,7 +6686,7 @@
       <c r="B71" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C71" s="116" t="s">
+      <c r="C71" s="115" t="s">
         <v>52</v>
       </c>
       <c r="D71" s="85" t="s">
@@ -6724,8 +6721,8 @@
       <c r="B72" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C72" s="116" t="s">
-        <v>453</v>
+      <c r="C72" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D72" s="85" t="s">
         <v>30</v>
@@ -6759,7 +6756,7 @@
       <c r="B73" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="116" t="s">
+      <c r="C73" s="115" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="85" t="s">
@@ -6794,7 +6791,7 @@
       <c r="B74" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="121" t="s">
+      <c r="C74" s="120" t="s">
         <v>278</v>
       </c>
       <c r="D74" s="85" t="s">
@@ -6829,7 +6826,7 @@
       <c r="B75" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="126" t="s">
+      <c r="C75" s="125" t="s">
         <v>255</v>
       </c>
       <c r="D75" s="84" t="s">
@@ -6868,7 +6865,7 @@
       <c r="B76" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="126" t="s">
+      <c r="C76" s="125" t="s">
         <v>256</v>
       </c>
       <c r="D76" s="84" t="s">
@@ -6907,7 +6904,7 @@
       <c r="B77" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="126" t="s">
+      <c r="C77" s="125" t="s">
         <v>257</v>
       </c>
       <c r="D77" s="84" t="s">
@@ -6946,7 +6943,7 @@
       <c r="B78" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="126" t="s">
+      <c r="C78" s="125" t="s">
         <v>258</v>
       </c>
       <c r="D78" s="84" t="s">
@@ -6985,7 +6982,7 @@
       <c r="B79" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="126" t="s">
         <v>281</v>
       </c>
       <c r="D79" s="84" t="s">
@@ -7024,7 +7021,7 @@
       <c r="B80" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C80" s="118" t="s">
+      <c r="C80" s="117" t="s">
         <v>311</v>
       </c>
       <c r="D80" s="85" t="s">
@@ -7059,7 +7056,7 @@
       <c r="B81" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C81" s="118" t="s">
+      <c r="C81" s="117" t="s">
         <v>280</v>
       </c>
       <c r="D81" s="85" t="s">
@@ -7094,7 +7091,7 @@
       <c r="B82" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="118" t="s">
+      <c r="C82" s="117" t="s">
         <v>299</v>
       </c>
       <c r="D82" s="85" t="s">
@@ -7129,7 +7126,7 @@
       <c r="B83" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="118" t="s">
+      <c r="C83" s="117" t="s">
         <v>52</v>
       </c>
       <c r="D83" s="85" t="s">
@@ -7164,8 +7161,8 @@
       <c r="B84" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="116" t="s">
-        <v>453</v>
+      <c r="C84" s="115" t="s">
+        <v>452</v>
       </c>
       <c r="D84" s="85" t="s">
         <v>30</v>
@@ -7199,7 +7196,7 @@
       <c r="B85" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="C85" s="118" t="s">
+      <c r="C85" s="117" t="s">
         <v>53</v>
       </c>
       <c r="D85" s="85" t="s">
@@ -7234,7 +7231,7 @@
       <c r="B86" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="128" t="s">
+      <c r="C86" s="127" t="s">
         <v>279</v>
       </c>
       <c r="D86" s="86" t="s">
@@ -7269,7 +7266,7 @@
       <c r="B87" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="129" t="s">
+      <c r="C87" s="128" t="s">
         <v>318</v>
       </c>
       <c r="D87" s="84" t="s">
@@ -7308,7 +7305,7 @@
       <c r="B88" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="118" t="s">
+      <c r="C88" s="117" t="s">
         <v>259</v>
       </c>
       <c r="D88" s="85" t="s">
@@ -7343,7 +7340,7 @@
       <c r="B89" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="118" t="s">
+      <c r="C89" s="117" t="s">
         <v>316</v>
       </c>
       <c r="D89" s="85" t="s">
@@ -7378,7 +7375,7 @@
       <c r="B90" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="C90" s="128" t="s">
+      <c r="C90" s="127" t="s">
         <v>313</v>
       </c>
       <c r="D90" s="86" t="s">
@@ -7413,7 +7410,7 @@
     <row r="91" spans="1:11" ht="15.75">
       <c r="A91" s="3"/>
       <c r="B91" s="92"/>
-      <c r="C91" s="116"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="85"/>
       <c r="F91" s="3"/>
       <c r="G91" s="91"/>
@@ -7425,7 +7422,7 @@
     <row r="92" spans="1:7" ht="15.75">
       <c r="A92" s="3"/>
       <c r="B92" s="92"/>
-      <c r="C92" s="116"/>
+      <c r="C92" s="115"/>
       <c r="D92" s="85"/>
       <c r="F92" s="3"/>
       <c r="G92" s="91"/>
@@ -7433,7 +7430,7 @@
     <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="3"/>
       <c r="B93" s="92"/>
-      <c r="C93" s="116"/>
+      <c r="C93" s="115"/>
       <c r="D93" s="85"/>
       <c r="F93" s="3"/>
       <c r="G93" s="91"/>
@@ -7441,7 +7438,7 @@
     <row r="94" spans="1:7" ht="15.75">
       <c r="A94" s="3"/>
       <c r="B94" s="92"/>
-      <c r="C94" s="116"/>
+      <c r="C94" s="115"/>
       <c r="D94" s="85"/>
       <c r="F94" s="3"/>
       <c r="G94" s="91"/>
@@ -7984,23 +7981,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7880433F-243B-4802-A894-88FA2956B0D6}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="115" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="114" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="102" customWidth="1"/>
     <col min="3" max="16384" width="9" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="102" t="s">
@@ -8008,83 +8005,89 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="115" t="s">
-        <v>260</v>
+      <c r="A2" s="114" t="s">
+        <v>259</v>
       </c>
       <c r="B2" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="131"/>
+      <c r="C2" s="130"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="114" t="s">
         <v>265</v>
       </c>
       <c r="B3" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="131"/>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="115" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="C4" s="131"/>
+      <c r="C3" s="130"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="114" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="103" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="131"/>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="115" t="s">
+      <c r="B5" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="130"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="153" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="130"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="114" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="131"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="115" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" s="132" t="s">
+      <c r="C7" s="130"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="114" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="131" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="131"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="115" t="s">
+      <c r="C8" s="130"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="132" t="s">
+      <c r="B9" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="132" t="s">
-        <v>329</v>
-      </c>
-      <c r="C9" s="131"/>
+      <c r="C9" s="130"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -8094,13 +8097,13 @@
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" s="115" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="131"/>
+      <c r="A10" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="130"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -8110,13 +8113,13 @@
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" s="115" t="s">
-        <v>322</v>
-      </c>
-      <c r="B11" s="132" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="131"/>
+      <c r="A11" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="130"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -8126,13 +8129,12 @@
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="115" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="132" t="s">
+      <c r="A12" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="131"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -8141,13 +8143,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="115" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>330</v>
-      </c>
+    <row r="13" spans="6:12" ht="15.75">
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -8156,13 +8152,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="115" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>329</v>
-      </c>
+    <row r="14" spans="6:12" ht="15.75">
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -8243,28 +8233,10 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="6:12" ht="15.75">
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="6:12" ht="15.75">
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B7">
-    <sortState ref="A2:B7">
-      <sortCondition sortBy="value" ref="B2:B7"/>
+  <autoFilter ref="A1:B8">
+    <sortState ref="A2:B8">
+      <sortCondition sortBy="value" ref="B2:B8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8305,17 +8277,17 @@
       <c r="E1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="138" t="s">
+      <c r="G1" s="137" t="s">
         <v>92</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -8931,7 +8903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5028-AD60-4C91-9CB5-C7DD50B0D883}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
@@ -8941,44 +8913,44 @@
   <cols>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="148" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="147" customWidth="1"/>
     <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="153" customWidth="1"/>
-    <col min="13" max="13" width="9" style="149"/>
+    <col min="9" max="9" width="10.375" style="152" customWidth="1"/>
+    <col min="13" max="13" width="9" style="148"/>
     <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="143" t="s">
+        <v>570</v>
+      </c>
+      <c r="C1" s="144" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="144" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" s="150" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" s="150" t="s">
         <v>571</v>
       </c>
-      <c r="C1" s="145" t="s">
-        <v>569</v>
-      </c>
-      <c r="D1" s="145" t="s">
-        <v>570</v>
-      </c>
-      <c r="E1" s="147" t="s">
-        <v>574</v>
-      </c>
-      <c r="G1" s="151" t="s">
-        <v>573</v>
-      </c>
-      <c r="H1" s="151" t="s">
-        <v>572</v>
-      </c>
-      <c r="I1" s="151" t="s">
-        <v>581</v>
+      <c r="I1" s="150" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -8990,17 +8962,17 @@
         <f>EDATE(C2,3)</f>
         <v>44119</v>
       </c>
-      <c r="E2" s="150">
+      <c r="E2" s="149">
         <f t="shared" si="0" ref="E2:E15">L2*12</f>
         <v>3.0246575342465754</v>
       </c>
-      <c r="G2" s="146" t="s">
+      <c r="G2" s="145" t="s">
         <v>126</v>
       </c>
       <c r="H2" s="71">
         <v>44027</v>
       </c>
-      <c r="I2" s="152">
+      <c r="I2" s="151">
         <v>20</v>
       </c>
       <c r="K2">
@@ -9018,7 +8990,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>90</v>
@@ -9030,18 +9002,18 @@
         <f>EDATE(C2,9)</f>
         <v>44301</v>
       </c>
-      <c r="E3" s="150">
+      <c r="E3" s="149">
         <f t="shared" si="0"/>
         <v>5.9835616438356167</v>
       </c>
-      <c r="G3" s="146" t="s">
-        <v>577</v>
+      <c r="G3" s="145" t="s">
+        <v>576</v>
       </c>
       <c r="H3" s="71">
         <f>EDATE(H2,3)</f>
         <v>44119</v>
       </c>
-      <c r="I3" s="152">
+      <c r="I3" s="151">
         <v>0</v>
       </c>
       <c r="K3">
@@ -9055,7 +9027,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>92</v>
@@ -9068,18 +9040,18 @@
         <f>EDATE(C2,12)</f>
         <v>44392</v>
       </c>
-      <c r="E4" s="150">
+      <c r="E4" s="149">
         <f t="shared" si="0"/>
         <v>2.9917808219178084</v>
       </c>
-      <c r="G4" s="146" t="s">
-        <v>578</v>
+      <c r="G4" s="145" t="s">
+        <v>577</v>
       </c>
       <c r="H4" s="71">
         <f>EDATE(H2,9)</f>
         <v>44301</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="151">
         <v>25</v>
       </c>
       <c r="K4">
@@ -9093,10 +9065,10 @@
     </row>
     <row r="5" spans="1:12" ht="15.75">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C5" s="71">
         <v>44393</v>
@@ -9105,18 +9077,18 @@
         <f>EDATE(C2,21)</f>
         <v>44666</v>
       </c>
-      <c r="E5" s="150">
+      <c r="E5" s="149">
         <f t="shared" si="0"/>
         <v>8.9753424657534246</v>
       </c>
-      <c r="G5" s="146" t="s">
-        <v>579</v>
+      <c r="G5" s="145" t="s">
+        <v>578</v>
       </c>
       <c r="H5" s="71">
         <f>EDATE(H2,12)</f>
         <v>44392</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="151">
         <v>-25</v>
       </c>
       <c r="K5">
@@ -9130,10 +9102,10 @@
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C6" s="71">
         <v>44667</v>
@@ -9142,18 +9114,18 @@
         <f>EDATE($C$2,34)</f>
         <v>45061</v>
       </c>
-      <c r="E6" s="150">
+      <c r="E6" s="149">
         <f t="shared" si="0"/>
         <v>12.953424657534246</v>
       </c>
-      <c r="G6" s="146" t="s">
-        <v>584</v>
+      <c r="G6" s="145" t="s">
+        <v>583</v>
       </c>
       <c r="H6" s="71">
         <f>EDATE(H2,21)</f>
         <v>44666</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="151">
         <v>0</v>
       </c>
       <c r="K6">
@@ -9167,7 +9139,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>99</v>
@@ -9180,18 +9152,18 @@
         <f>EDATE(C2,38)</f>
         <v>45184</v>
       </c>
-      <c r="E7" s="150">
+      <c r="E7" s="149">
         <f t="shared" si="0"/>
         <v>4.043835616438356</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H7" s="71">
         <f>C7</f>
         <v>45061</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="151">
         <v>0</v>
       </c>
       <c r="K7">
@@ -9205,10 +9177,10 @@
     </row>
     <row r="8" spans="1:12" ht="15.75">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C8" s="71">
         <v>45184</v>
@@ -9217,17 +9189,17 @@
         <f>EDATE(C2,42)</f>
         <v>45306</v>
       </c>
-      <c r="E8" s="150">
+      <c r="E8" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H8" s="71">
         <v>45184</v>
       </c>
-      <c r="I8" s="152">
+      <c r="I8" s="151">
         <v>0</v>
       </c>
       <c r="K8">
@@ -9241,7 +9213,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>88</v>
@@ -9252,11 +9224,11 @@
       <c r="D9" s="71">
         <v>44256</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="0"/>
         <v>7.5287671232876709</v>
       </c>
-      <c r="I9" s="152"/>
+      <c r="I9" s="151"/>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>229</v>
@@ -9268,7 +9240,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>90</v>
@@ -9279,11 +9251,11 @@
       <c r="D10" s="71">
         <v>44438</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="149">
         <f t="shared" si="0"/>
         <v>5.9835616438356167</v>
       </c>
-      <c r="I10" s="152"/>
+      <c r="I10" s="151"/>
       <c r="K10">
         <f t="shared" si="1"/>
         <v>182</v>
@@ -9295,7 +9267,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
@@ -9306,11 +9278,11 @@
       <c r="D11" s="71">
         <v>44530</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="149">
         <f t="shared" si="0"/>
         <v>3.0246575342465754</v>
       </c>
-      <c r="I11" s="152"/>
+      <c r="I11" s="151"/>
       <c r="K11">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -9322,10 +9294,10 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C12" s="71">
         <v>44531</v>
@@ -9333,11 +9305,11 @@
       <c r="D12" s="71">
         <v>44804</v>
       </c>
-      <c r="E12" s="150">
+      <c r="E12" s="149">
         <f t="shared" si="0"/>
         <v>8.9753424657534246</v>
       </c>
-      <c r="I12" s="152"/>
+      <c r="I12" s="151"/>
       <c r="K12">
         <f t="shared" si="1"/>
         <v>273</v>
@@ -9349,10 +9321,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.75">
       <c r="A13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C13" s="71">
         <v>44804</v>
@@ -9360,11 +9332,11 @@
       <c r="D13" s="71">
         <v>45062</v>
       </c>
-      <c r="E13" s="150">
+      <c r="E13" s="149">
         <f t="shared" si="0"/>
         <v>8.4821917808219176</v>
       </c>
-      <c r="I13" s="152"/>
+      <c r="I13" s="151"/>
       <c r="K13">
         <f t="shared" si="1"/>
         <v>258</v>
@@ -9376,7 +9348,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>99</v>
@@ -9387,11 +9359,11 @@
       <c r="D14" s="71">
         <v>45184</v>
       </c>
-      <c r="E14" s="150">
+      <c r="E14" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
-      <c r="I14" s="152"/>
+      <c r="I14" s="151"/>
       <c r="K14">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -9403,10 +9375,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C15" s="71">
         <v>45184</v>
@@ -9414,11 +9386,11 @@
       <c r="D15" s="71">
         <v>45306</v>
       </c>
-      <c r="E15" s="150">
+      <c r="E15" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
-      <c r="I15" s="152"/>
+      <c r="I15" s="151"/>
       <c r="K15">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -9946,953 +9918,953 @@
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="113" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="112" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A1" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="109" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="110" t="s">
+    </row>
+    <row r="2" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A2" s="103" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A2" s="104" t="s">
+      <c r="B2" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="104" t="s">
+    </row>
+    <row r="3" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A3" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="C2" s="111" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A3" s="104" t="s">
+    </row>
+    <row r="4" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A4" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B4" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="111" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="104" t="s">
+    </row>
+    <row r="5" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A5" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A5" s="104" t="s">
+    </row>
+    <row r="6" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A6" s="103" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A7" s="103" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A8" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A9" s="103" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A10" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A11" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A12" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A13" s="103" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A14" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A15" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A6" s="104" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>341</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A7" s="104" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="104" t="s">
-        <v>343</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A8" s="104" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A9" s="104" t="s">
-        <v>346</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A10" s="104" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A11" s="104" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>351</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A12" s="104" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>353</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A13" s="104" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>355</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A14" s="104" t="s">
-        <v>356</v>
-      </c>
-      <c r="B14" s="104" t="s">
+      <c r="B15" s="103" t="s">
         <v>357</v>
       </c>
-      <c r="C14" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A15" s="104" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" s="104" t="s">
+      <c r="C15" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A16" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="C15" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A16" s="104" t="s">
+      <c r="B16" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A17" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B17" s="103" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C17" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A18" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A19" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="B19" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A20" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A21" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A22" s="103" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A23" s="103" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="103" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A24" s="103" t="s">
+        <v>369</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A25" s="103" t="s">
+        <v>371</v>
+      </c>
+      <c r="B25" s="103" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A26" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A27" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27" s="103" t="s">
+        <v>375</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A28" s="103" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="103" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A29" s="103" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>378</v>
+      </c>
+      <c r="C29" s="110" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A17" s="104" t="s">
-        <v>360</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="111" t="s">
+    <row r="30" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A30" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="103" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" s="110" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A18" s="104" t="s">
-        <v>361</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="111" t="s">
+    <row r="31" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A31" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="110" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A19" s="104" t="s">
-        <v>362</v>
-      </c>
-      <c r="B19" s="104" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="111" t="s">
+    <row r="32" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A32" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="110" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A20" s="104" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" s="104" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A21" s="104" t="s">
-        <v>364</v>
-      </c>
-      <c r="B21" s="104" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A22" s="104" t="s">
-        <v>366</v>
-      </c>
-      <c r="B22" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A23" s="104" t="s">
-        <v>368</v>
-      </c>
-      <c r="B23" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A24" s="104" t="s">
-        <v>370</v>
-      </c>
-      <c r="B24" s="104" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A25" s="104" t="s">
-        <v>372</v>
-      </c>
-      <c r="B25" s="104" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A26" s="104" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="104" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A27" s="104" t="s">
-        <v>375</v>
-      </c>
-      <c r="B27" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A28" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="B28" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="C28" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A29" s="104" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>379</v>
-      </c>
-      <c r="C29" s="111" t="s">
+    <row r="33" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A33" s="103" t="s">
+        <v>382</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A34" s="103" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A35" s="103" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A36" s="103" t="s">
+        <v>388</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A37" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="103" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A38" s="103" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A39" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A40" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A41" s="103" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A42" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="B42" s="103" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A43" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="103" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A44" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A45" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C45" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A46" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A47" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="103" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A48" s="103" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="C48" s="110" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A49" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="110" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A30" s="104" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" s="104" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="111" t="s">
+    <row r="50" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A50" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="B50" s="103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C50" s="110" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A31" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="104" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="111" t="s">
+    <row r="51" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A51" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" s="103" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="110" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A32" s="104" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" s="104" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="111" t="s">
+    <row r="52" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A52" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="C52" s="110" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A33" s="104" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" s="104" t="s">
-        <v>384</v>
-      </c>
-      <c r="C33" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A34" s="104" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A35" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" s="104" t="s">
-        <v>388</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A36" s="104" t="s">
-        <v>389</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>390</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A37" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" s="104" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A38" s="104" t="s">
-        <v>393</v>
-      </c>
-      <c r="B38" s="104" t="s">
-        <v>391</v>
-      </c>
-      <c r="C38" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A39" s="104" t="s">
-        <v>394</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A40" s="104" t="s">
-        <v>395</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>395</v>
-      </c>
-      <c r="C40" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A41" s="104" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>397</v>
-      </c>
-      <c r="C41" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A42" s="104" t="s">
-        <v>398</v>
-      </c>
-      <c r="B42" s="104" t="s">
-        <v>398</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A43" s="104" t="s">
-        <v>399</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>399</v>
-      </c>
-      <c r="C43" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A44" s="104" t="s">
-        <v>400</v>
-      </c>
-      <c r="B44" s="104" t="s">
-        <v>400</v>
-      </c>
-      <c r="C44" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A45" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="B45" s="104" t="s">
-        <v>401</v>
-      </c>
-      <c r="C45" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A46" s="104" t="s">
-        <v>402</v>
-      </c>
-      <c r="B46" s="104" t="s">
-        <v>402</v>
-      </c>
-      <c r="C46" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A47" s="104" t="s">
-        <v>403</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>403</v>
-      </c>
-      <c r="C47" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A48" s="104" t="s">
-        <v>404</v>
-      </c>
-      <c r="B48" s="104" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="111" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A49" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="B49" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="C49" s="111" t="s">
+    <row r="53" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A53" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C53" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A54" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A55" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="C55" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A56" s="103" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A57" s="103" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="C57" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A58" s="103" t="s">
+        <v>414</v>
+      </c>
+      <c r="B58" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="C58" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A59" s="103" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="103" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A60" s="103" t="s">
+        <v>417</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="C60" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="103" customFormat="1" ht="30">
+      <c r="A61" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>417</v>
+      </c>
+      <c r="C61" s="110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A62" s="103" t="s">
+        <v>420</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>420</v>
+      </c>
+      <c r="C62" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="103" customFormat="1" ht="60">
+      <c r="A63" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C63" s="110" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A64" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="B64" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="C64" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A50" s="104" t="s">
-        <v>407</v>
-      </c>
-      <c r="B50" s="104" t="s">
-        <v>407</v>
-      </c>
-      <c r="C50" s="111" t="s">
+    <row r="65" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A65" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A51" s="104" t="s">
-        <v>408</v>
-      </c>
-      <c r="B51" s="104" t="s">
-        <v>408</v>
-      </c>
-      <c r="C51" s="111" t="s">
+    <row r="66" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A66" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="B66" s="103" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A52" s="104" t="s">
-        <v>409</v>
-      </c>
-      <c r="B52" s="104" t="s">
-        <v>409</v>
-      </c>
-      <c r="C52" s="111" t="s">
+    <row r="67" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A67" s="103" t="s">
+        <v>425</v>
+      </c>
+      <c r="B67" s="103" t="s">
+        <v>427</v>
+      </c>
+      <c r="C67" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A53" s="104" t="s">
-        <v>410</v>
-      </c>
-      <c r="B53" s="104" t="s">
-        <v>410</v>
-      </c>
-      <c r="C53" s="111" t="s">
+    <row r="68" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A68" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="B68" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="C68" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A54" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="B54" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="C54" s="111" t="s">
+    <row r="69" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A69" s="103" t="s">
+        <v>430</v>
+      </c>
+      <c r="B69" s="103" t="s">
+        <v>431</v>
+      </c>
+      <c r="C69" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A55" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="B55" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="C55" s="111" t="s">
+    <row r="70" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A70" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="B70" s="103" t="s">
+        <v>433</v>
+      </c>
+      <c r="C70" s="110" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A56" s="104" t="s">
-        <v>413</v>
-      </c>
-      <c r="B56" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="C56" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A57" s="104" t="s">
-        <v>414</v>
-      </c>
-      <c r="B57" s="104" t="s">
-        <v>415</v>
-      </c>
-      <c r="C57" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A58" s="104" t="s">
-        <v>415</v>
-      </c>
-      <c r="B58" s="104" t="s">
-        <v>416</v>
-      </c>
-      <c r="C58" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A59" s="104" t="s">
-        <v>416</v>
-      </c>
-      <c r="B59" s="104" t="s">
-        <v>417</v>
-      </c>
-      <c r="C59" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A60" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="B60" s="104" t="s">
-        <v>419</v>
-      </c>
-      <c r="C60" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="104" customFormat="1" ht="30">
-      <c r="A61" s="104" t="s">
-        <v>420</v>
-      </c>
-      <c r="B61" s="104" t="s">
-        <v>418</v>
-      </c>
-      <c r="C61" s="111" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A62" s="104" t="s">
-        <v>421</v>
-      </c>
-      <c r="B62" s="104" t="s">
-        <v>421</v>
-      </c>
-      <c r="C62" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="104" customFormat="1" ht="60">
-      <c r="A63" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="B63" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="C63" s="111" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A64" s="104" t="s">
-        <v>423</v>
-      </c>
-      <c r="B64" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="C64" s="111" t="s">
+    <row r="71" spans="1:3" s="103" customFormat="1" ht="15.75">
+      <c r="A71" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>434</v>
+      </c>
+      <c r="C71" s="111" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A72" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>436</v>
+      </c>
+      <c r="C72" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A65" s="104" t="s">
-        <v>425</v>
-      </c>
-      <c r="B65" s="104" t="s">
-        <v>426</v>
-      </c>
-      <c r="C65" s="111" t="s">
+    <row r="73" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A73" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="B73" s="103" t="s">
+        <v>437</v>
+      </c>
+      <c r="C73" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A66" s="104" t="s">
-        <v>424</v>
-      </c>
-      <c r="B66" s="104" t="s">
-        <v>427</v>
-      </c>
-      <c r="C66" s="111" t="s">
+    <row r="74" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A74" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="B74" s="103" t="s">
+        <v>438</v>
+      </c>
+      <c r="C74" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A67" s="104" t="s">
-        <v>426</v>
-      </c>
-      <c r="B67" s="104" t="s">
-        <v>428</v>
-      </c>
-      <c r="C67" s="111" t="s">
+    <row r="75" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A75" s="103" t="s">
+        <v>439</v>
+      </c>
+      <c r="B75" s="103" t="s">
+        <v>440</v>
+      </c>
+      <c r="C75" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A68" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="B68" s="104" t="s">
-        <v>430</v>
-      </c>
-      <c r="C68" s="111" t="s">
+    <row r="76" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A76" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="B76" s="103" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A69" s="104" t="s">
-        <v>431</v>
-      </c>
-      <c r="B69" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="C69" s="111" t="s">
+    <row r="77" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A77" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="B77" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A70" s="104" t="s">
-        <v>433</v>
-      </c>
-      <c r="B70" s="104" t="s">
-        <v>434</v>
-      </c>
-      <c r="C70" s="111" t="s">
+    <row r="78" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A78" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="B78" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" s="110" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="104" customFormat="1" ht="15.75">
-      <c r="A71" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="B71" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="C71" s="112" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A72" s="104" t="s">
-        <v>437</v>
-      </c>
-      <c r="B72" s="104" t="s">
-        <v>437</v>
-      </c>
-      <c r="C72" s="111" t="s">
+    <row r="79" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A79" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="B79" s="103" t="s">
+        <v>444</v>
+      </c>
+      <c r="C79" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A73" s="104" t="s">
-        <v>438</v>
-      </c>
-      <c r="B73" s="104" t="s">
-        <v>438</v>
-      </c>
-      <c r="C73" s="111" t="s">
+    <row r="80" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A80" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="B80" s="103" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A74" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="B74" s="104" t="s">
-        <v>439</v>
-      </c>
-      <c r="C74" s="111" t="s">
+    <row r="81" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A81" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="B81" s="103" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A75" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="B75" s="104" t="s">
-        <v>441</v>
-      </c>
-      <c r="C75" s="111" t="s">
+    <row r="82" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A82" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="B82" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="C82" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A76" s="104" t="s">
-        <v>442</v>
-      </c>
-      <c r="B76" s="104" t="s">
-        <v>442</v>
-      </c>
-      <c r="C76" s="111" t="s">
+    <row r="83" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A83" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="103" t="s">
+        <v>448</v>
+      </c>
+      <c r="C83" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A77" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="B77" s="104" t="s">
-        <v>443</v>
-      </c>
-      <c r="C77" s="111" t="s">
+    <row r="84" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A84" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="B84" s="103" t="s">
+        <v>449</v>
+      </c>
+      <c r="C84" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A78" s="104" t="s">
-        <v>444</v>
-      </c>
-      <c r="B78" s="104" t="s">
-        <v>444</v>
-      </c>
-      <c r="C78" s="111" t="s">
+    <row r="85" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A85" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="103" t="s">
+        <v>450</v>
+      </c>
+      <c r="C85" s="110" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A79" s="104" t="s">
-        <v>445</v>
-      </c>
-      <c r="B79" s="104" t="s">
-        <v>445</v>
-      </c>
-      <c r="C79" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A80" s="104" t="s">
-        <v>446</v>
-      </c>
-      <c r="B80" s="104" t="s">
-        <v>446</v>
-      </c>
-      <c r="C80" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A81" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="B81" s="104" t="s">
-        <v>447</v>
-      </c>
-      <c r="C81" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A82" s="104" t="s">
-        <v>448</v>
-      </c>
-      <c r="B82" s="104" t="s">
-        <v>448</v>
-      </c>
-      <c r="C82" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A83" s="104" t="s">
-        <v>449</v>
-      </c>
-      <c r="B83" s="104" t="s">
-        <v>449</v>
-      </c>
-      <c r="C83" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A84" s="104" t="s">
-        <v>450</v>
-      </c>
-      <c r="B84" s="104" t="s">
-        <v>450</v>
-      </c>
-      <c r="C84" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A85" s="104" t="s">
+    <row r="86" spans="1:3" s="103" customFormat="1" ht="45">
+      <c r="A86" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="B85" s="104" t="s">
+      <c r="B86" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="C85" s="111" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="104" customFormat="1" ht="45">
-      <c r="A86" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="B86" s="104" t="s">
-        <v>452</v>
-      </c>
-      <c r="C86" s="111" t="s">
-        <v>461</v>
+      <c r="C86" s="110" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/_in/rules_DB.xlsx
+++ b/assets/data/_in/rules_DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="8" r:id="rId2"/>
@@ -22,9 +22,9 @@
     <sheet name="m4n-preds" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">header!$A$1:$Q$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">header!$A$1:$Q$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Lines!$A$1:$K$90</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">major!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">major!$B$1:$I$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mta!$A$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">task_mapping!$A$1:$B$8</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="585">
   <si>
     <t>Rule</t>
   </si>
@@ -571,9 +571,6 @@
     <t>.02.10</t>
   </si>
   <si>
-    <t>ניהול הממשקים</t>
-  </si>
-  <si>
     <t>sap_01</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
   </si>
   <si>
     <t>חתום</t>
-  </si>
-  <si>
-    <t>I-00</t>
   </si>
   <si>
     <t>סיום משימות משנה לסאפ</t>
@@ -1403,9 +1397,6 @@
     <t>בדיקת קבלה ע״י המשתמשים</t>
   </si>
   <si>
-    <t>00.50</t>
-  </si>
-  <si>
     <t>Army</t>
   </si>
   <si>
@@ -1745,15 +1736,6 @@
     <t>INFRA</t>
   </si>
   <si>
-    <t>00.40</t>
-  </si>
-  <si>
-    <t>אבני דרך מייד-פור-נט</t>
-  </si>
-  <si>
-    <t>תוצרי ביניים ממייד-פור-נט</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -1806,6 +1788,21 @@
   </si>
   <si>
     <t>SAT(ARO+38)</t>
+  </si>
+  <si>
+    <t>אינטגרציה</t>
+  </si>
+  <si>
+    <t>A-00</t>
+  </si>
+  <si>
+    <t>B-00</t>
+  </si>
+  <si>
+    <t>C-00</t>
+  </si>
+  <si>
+    <t>30/08/20222</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2210,7 @@
       <protection/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2658,6 +2655,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3050,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E074B-609E-4F77-BA2D-034C7E31BA8E}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="K53" sqref="K53"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A7">
+      <selection pane="topLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3099,7 +3105,7 @@
         <v>142</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>143</v>
@@ -3117,10 +3123,10 @@
         <v>159</v>
       </c>
       <c r="N1" s="138" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P1" s="140" t="s">
         <v>146</v>
@@ -3148,7 +3154,7 @@
         <v>150</v>
       </c>
       <c r="K3" s="105" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75">
@@ -3159,7 +3165,7 @@
         <v>151</v>
       </c>
       <c r="H4" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J4" s="103" t="b">
         <v>1</v>
@@ -3177,7 +3183,7 @@
         <v>43876</v>
       </c>
       <c r="P4" s="142" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75">
@@ -3185,22 +3191,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J5" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="132" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M5" s="135" t="s">
         <v>90</v>
       </c>
       <c r="P5" s="142" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75">
@@ -3211,19 +3217,19 @@
         <v>153</v>
       </c>
       <c r="H6" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J6" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="132" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M6" s="135" t="s">
         <v>92</v>
       </c>
       <c r="P6" s="142" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75">
@@ -3234,19 +3240,19 @@
         <v>154</v>
       </c>
       <c r="H7" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J7" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="132" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M7" s="135" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="P7" s="142" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75">
@@ -3257,19 +3263,19 @@
         <v>154</v>
       </c>
       <c r="H8" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J8" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="132" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M8" s="135" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P8" s="142" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75">
@@ -3280,7 +3286,7 @@
         <v>155</v>
       </c>
       <c r="K9" s="105" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M9" s="135"/>
       <c r="P9" s="142"/>
@@ -3290,20 +3296,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J10" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="132" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M10" s="135"/>
       <c r="P10" s="142" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
@@ -3311,20 +3317,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H11" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J11" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="132" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M11" s="135"/>
       <c r="P11" s="142" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
@@ -3332,20 +3338,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H12" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J12" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="132" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M12" s="135"/>
       <c r="P12" s="142" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75">
@@ -3353,20 +3359,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H13" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J13" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="132" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M13" s="135"/>
       <c r="P13" s="142" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75">
@@ -3374,20 +3380,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H14" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J14" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="132" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M14" s="135"/>
       <c r="P14" s="142" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75">
@@ -3395,20 +3401,20 @@
         <v>4</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H15" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J15" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="132" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M15" s="135"/>
       <c r="P15" s="142" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75">
@@ -3419,7 +3425,7 @@
         <v>156</v>
       </c>
       <c r="K16" s="105" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M16" s="135"/>
       <c r="P16" s="142"/>
@@ -3429,20 +3435,20 @@
         <v>3</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H17" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J17" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="132" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M17" s="135"/>
       <c r="P17" s="142" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75">
@@ -3450,20 +3456,20 @@
         <v>3</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H18" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J18" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="132" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M18" s="135"/>
       <c r="P18" s="142" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75">
@@ -3471,20 +3477,20 @@
         <v>3</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H19" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J19" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="132" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="M19" s="135"/>
       <c r="P19" s="142" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75">
@@ -3492,20 +3498,20 @@
         <v>3</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H20" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J20" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="132" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M20" s="135"/>
       <c r="P20" s="142" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75">
@@ -3513,20 +3519,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H21" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J21" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="132" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="M21" s="135"/>
       <c r="P21" s="142" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75">
@@ -3534,20 +3540,20 @@
         <v>3</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H22" s="103" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J22" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="132" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M22" s="135"/>
       <c r="P22" s="142" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75">
@@ -3555,10 +3561,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="104" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K23" s="105" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75">
@@ -3566,7 +3572,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="104" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="K24" s="105" t="s">
         <v>158</v>
@@ -3577,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G25" s="104"/>
       <c r="J25" s="103" t="b">
@@ -3587,7 +3593,7 @@
         <v>152</v>
       </c>
       <c r="M25" s="134" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
@@ -3595,17 +3601,17 @@
         <v>4</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J26" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L26" s="136"/>
       <c r="M26" s="134" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
@@ -3613,17 +3619,17 @@
         <v>4</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J27" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L27" s="136"/>
       <c r="M27" s="134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75">
@@ -3631,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K28" s="105" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75">
@@ -3642,10 +3648,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K29" s="105" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75">
@@ -3653,10 +3659,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K30" s="105" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75">
@@ -3664,13 +3670,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J31" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="132" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75">
@@ -3678,13 +3684,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J32" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="132" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75">
@@ -3692,13 +3698,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J33" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="132" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75">
@@ -3706,13 +3712,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="J34" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="132" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75">
@@ -3720,10 +3726,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K35" s="105" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75">
@@ -3731,13 +3737,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J36" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="132" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75">
@@ -3745,13 +3751,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J37" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="132" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75">
@@ -3759,13 +3765,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J38" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="132" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75">
@@ -3773,13 +3779,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J39" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="132" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75">
@@ -3787,10 +3793,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K40" s="105" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75">
@@ -3798,10 +3804,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="K41" s="105" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75">
@@ -3809,13 +3815,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J42" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="132" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75">
@@ -3823,13 +3829,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="104" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J43" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="132" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75">
@@ -3837,13 +3843,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="104" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J44" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K44" s="132" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75">
@@ -3851,13 +3857,13 @@
         <v>6</v>
       </c>
       <c r="B45" s="104" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J45" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K45" s="132" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75">
@@ -3865,10 +3871,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="K46" s="105" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75">
@@ -3876,13 +3882,13 @@
         <v>6</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J47" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K47" s="132" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75">
@@ -3890,13 +3896,13 @@
         <v>6</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J48" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K48" s="132" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75">
@@ -3904,13 +3910,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J49" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="132" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75">
@@ -3918,35 +3924,35 @@
         <v>6</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J50" s="103" t="b">
         <v>1</v>
       </c>
       <c r="K50" s="132" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75">
       <c r="A51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="K51" s="105" t="s">
-        <v>566</v>
+        <v>581</v>
+      </c>
+      <c r="K51" s="154" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75">
       <c r="A52" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>453</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>567</v>
+        <v>582</v>
+      </c>
+      <c r="K52" s="154" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75">
@@ -3954,14 +3960,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>266</v>
-      </c>
-      <c r="K53" s="105" t="s">
-        <v>177</v>
+        <v>583</v>
+      </c>
+      <c r="K53" s="154" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q53"/>
+  <autoFilter ref="A1:Q51"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -4029,16 +4035,16 @@
         <v>160</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F2" s="6" t="b">
         <v>1</v>
@@ -4068,16 +4074,16 @@
         <v>161</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D3" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>0</v>
@@ -4103,16 +4109,16 @@
         <v>162</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D4" s="85">
         <v>1</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>0</v>
@@ -4142,16 +4148,16 @@
         <v>163</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" s="85">
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>0</v>
@@ -4181,7 +4187,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="115" t="s">
         <v>52</v>
@@ -4190,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>0</v>
@@ -4220,16 +4226,16 @@
         <v>165</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D7" s="85">
         <v>1</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>0</v>
@@ -4259,7 +4265,7 @@
         <v>173</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="115" t="s">
         <v>53</v>
@@ -4268,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="3" t="b">
         <v>0</v>
@@ -4298,16 +4304,16 @@
         <v>174</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="120" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>1</v>
@@ -4337,16 +4343,16 @@
         <v>160</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="6" t="b">
         <v>1</v>
@@ -4376,16 +4382,16 @@
         <v>161</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="3" t="b">
         <v>0</v>
@@ -4411,16 +4417,16 @@
         <v>162</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D12" s="85">
         <v>1</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="3" t="b">
         <v>0</v>
@@ -4450,16 +4456,16 @@
         <v>163</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="85">
         <v>1</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="3" t="b">
         <v>0</v>
@@ -4489,7 +4495,7 @@
         <v>164</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="115" t="s">
         <v>52</v>
@@ -4498,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="3" t="b">
         <v>0</v>
@@ -4528,16 +4534,16 @@
         <v>165</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D15" s="85">
         <v>1</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>0</v>
@@ -4567,7 +4573,7 @@
         <v>173</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="115" t="s">
         <v>53</v>
@@ -4576,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" s="3" t="b">
         <v>0</v>
@@ -4606,16 +4612,16 @@
         <v>174</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="b">
         <v>1</v>
@@ -4645,16 +4651,16 @@
         <v>160</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="119" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D18" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="6" t="b">
         <v>1</v>
@@ -4684,16 +4690,16 @@
         <v>161</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="3" t="b">
         <v>0</v>
@@ -4723,16 +4729,16 @@
         <v>162</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D20" s="85">
         <v>1</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="3" t="b">
         <v>0</v>
@@ -4762,16 +4768,16 @@
         <v>163</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D21" s="85">
         <v>1</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
@@ -4801,7 +4807,7 @@
         <v>164</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="115" t="s">
         <v>52</v>
@@ -4810,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="3" t="b">
         <v>0</v>
@@ -4840,16 +4846,16 @@
         <v>165</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D23" s="85">
         <v>1</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F23" s="3" t="b">
         <v>0</v>
@@ -4879,7 +4885,7 @@
         <v>173</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="115" t="s">
         <v>53</v>
@@ -4888,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="3" t="b">
         <v>0</v>
@@ -4918,16 +4924,16 @@
         <v>174</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="120" t="s">
         <v>135</v>
       </c>
       <c r="D25" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="b">
         <v>1</v>
@@ -4957,16 +4963,16 @@
         <v>160</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" s="6" t="b">
         <v>1</v>
@@ -4996,16 +5002,16 @@
         <v>161</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D27" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="3" t="b">
         <v>0</v>
@@ -5031,16 +5037,16 @@
         <v>162</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D28" s="85">
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="3" t="b">
         <v>0</v>
@@ -5070,16 +5076,16 @@
         <v>163</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D29" s="85">
         <v>1</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="3" t="b">
         <v>0</v>
@@ -5109,7 +5115,7 @@
         <v>164</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C30" s="115" t="s">
         <v>52</v>
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F30" s="3" t="b">
         <v>0</v>
@@ -5148,16 +5154,16 @@
         <v>165</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D31" s="85">
         <v>1</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F31" s="3" t="b">
         <v>0</v>
@@ -5187,7 +5193,7 @@
         <v>173</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C32" s="115" t="s">
         <v>53</v>
@@ -5196,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F32" s="3" t="b">
         <v>0</v>
@@ -5226,16 +5232,16 @@
         <v>174</v>
       </c>
       <c r="B33" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F33" s="7" t="b">
         <v>1</v>
@@ -5265,7 +5271,7 @@
         <v>160</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="121" t="s">
         <v>136</v>
@@ -5274,7 +5280,7 @@
         <v>76</v>
       </c>
       <c r="E34" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F34" s="8" t="b">
         <v>1</v>
@@ -5304,7 +5310,7 @@
         <v>161</v>
       </c>
       <c r="B35" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="122" t="s">
         <v>84</v>
@@ -5313,7 +5319,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" s="5" t="b">
         <v>0</v>
@@ -5339,7 +5345,7 @@
         <v>167</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C36" s="123" t="s">
         <v>78</v>
@@ -5348,7 +5354,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="5" t="b">
         <v>0</v>
@@ -5378,7 +5384,7 @@
         <v>168</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="123" t="s">
         <v>81</v>
@@ -5387,7 +5393,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F37" s="5" t="b">
         <v>0</v>
@@ -5417,7 +5423,7 @@
         <v>169</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="123" t="s">
         <v>79</v>
@@ -5426,7 +5432,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F38" s="5" t="b">
         <v>0</v>
@@ -5456,7 +5462,7 @@
         <v>162</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="122" t="s">
         <v>83</v>
@@ -5465,7 +5471,7 @@
         <v>76</v>
       </c>
       <c r="E39" s="83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" s="5" t="b">
         <v>0</v>
@@ -5495,7 +5501,7 @@
         <v>170</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="116" t="s">
         <v>54</v>
@@ -5504,7 +5510,7 @@
         <v>77</v>
       </c>
       <c r="E40" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F40" s="5" t="b">
         <v>0</v>
@@ -5534,7 +5540,7 @@
         <v>171</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C41" s="116" t="s">
         <v>55</v>
@@ -5543,7 +5549,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F41" s="5" t="b">
         <v>0</v>
@@ -5573,7 +5579,7 @@
         <v>172</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="116" t="s">
         <v>80</v>
@@ -5582,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F42" s="5" t="b">
         <v>0</v>
@@ -5612,7 +5618,7 @@
         <v>163</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C43" s="116" t="s">
         <v>56</v>
@@ -5621,7 +5627,7 @@
         <v>30</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F43" s="5" t="b">
         <v>0</v>
@@ -5651,16 +5657,16 @@
         <v>164</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D44" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F44" s="5" t="b">
         <v>0</v>
@@ -5690,7 +5696,7 @@
         <v>165</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C45" s="116" t="s">
         <v>82</v>
@@ -5699,7 +5705,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" s="5" t="b">
         <v>0</v>
@@ -5729,7 +5735,7 @@
         <v>173</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="116" t="s">
         <v>57</v>
@@ -5738,7 +5744,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F46" s="5" t="b">
         <v>0</v>
@@ -5768,7 +5774,7 @@
         <v>174</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="116" t="s">
         <v>58</v>
@@ -5777,7 +5783,7 @@
         <v>30</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F47" s="5" t="b">
         <v>0</v>
@@ -5807,7 +5813,7 @@
         <v>175</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="116" t="s">
         <v>74</v>
@@ -5816,7 +5822,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" s="5" t="b">
         <v>0</v>
@@ -5846,7 +5852,7 @@
         <v>176</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="116" t="s">
         <v>75</v>
@@ -5855,7 +5861,7 @@
         <v>128</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F49" s="5" t="b">
         <v>0</v>
@@ -5882,19 +5888,19 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" thickBot="1">
       <c r="A50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C50" s="124" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D50" s="85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F50" s="7" t="b">
         <v>1</v>
@@ -5924,16 +5930,16 @@
         <v>160</v>
       </c>
       <c r="B51" s="78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D51" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>1</v>
@@ -5963,16 +5969,16 @@
         <v>161</v>
       </c>
       <c r="B52" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D52" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F52" s="3" t="b">
         <v>0</v>
@@ -5998,16 +6004,16 @@
         <v>162</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D53" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F53" s="5" t="b">
         <v>0</v>
@@ -6037,16 +6043,16 @@
         <v>163</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D54" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="82" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="5" t="b">
         <v>0</v>
@@ -6076,7 +6082,7 @@
         <v>164</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C55" s="115" t="s">
         <v>52</v>
@@ -6085,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F55" s="3" t="b">
         <v>0</v>
@@ -6115,16 +6121,16 @@
         <v>165</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C56" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D56" s="85">
         <v>1</v>
       </c>
       <c r="E56" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F56" s="3" t="b">
         <v>0</v>
@@ -6154,7 +6160,7 @@
         <v>173</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" s="115" t="s">
         <v>53</v>
@@ -6163,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F57" s="3" t="b">
         <v>0</v>
@@ -6193,16 +6199,16 @@
         <v>174</v>
       </c>
       <c r="B58" s="80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" s="124" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D58" s="86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E58" s="82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F58" s="7" t="b">
         <v>1</v>
@@ -6232,7 +6238,7 @@
         <v>160</v>
       </c>
       <c r="B59" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" s="59" t="s">
         <v>137</v>
@@ -6241,7 +6247,7 @@
         <v>76</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>1</v>
@@ -6271,16 +6277,16 @@
         <v>161</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D60" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E60" s="82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F60" s="3" t="b">
         <v>0</v>
@@ -6306,16 +6312,16 @@
         <v>162</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D61" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F61" s="5" t="b">
         <v>0</v>
@@ -6345,16 +6351,16 @@
         <v>163</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D62" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F62" s="5" t="b">
         <v>0</v>
@@ -6384,16 +6390,16 @@
         <v>164</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="5" t="b">
         <v>0</v>
@@ -6423,16 +6429,16 @@
         <v>165</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D64" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F64" s="5" t="b">
         <v>0</v>
@@ -6462,16 +6468,16 @@
         <v>173</v>
       </c>
       <c r="B65" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D65" s="85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F65" s="5" t="b">
         <v>0</v>
@@ -6501,16 +6507,16 @@
         <v>174</v>
       </c>
       <c r="B66" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D66" s="86" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F66" s="58" t="b">
         <v>1</v>
@@ -6540,16 +6546,16 @@
         <v>160</v>
       </c>
       <c r="B67" s="78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C67" s="119" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D67" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F67" s="6" t="b">
         <v>1</v>
@@ -6579,16 +6585,16 @@
         <v>161</v>
       </c>
       <c r="B68" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68" s="115" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D68" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="82" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F68" s="5" t="b">
         <v>0</v>
@@ -6614,16 +6620,16 @@
         <v>162</v>
       </c>
       <c r="B69" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C69" s="115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D69" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F69" s="5" t="b">
         <v>0</v>
@@ -6649,16 +6655,16 @@
         <v>163</v>
       </c>
       <c r="B70" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C70" s="115" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D70" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F70" s="5" t="b">
         <v>0</v>
@@ -6684,7 +6690,7 @@
         <v>164</v>
       </c>
       <c r="B71" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C71" s="115" t="s">
         <v>52</v>
@@ -6693,7 +6699,7 @@
         <v>30</v>
       </c>
       <c r="E71" s="82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F71" s="5" t="b">
         <v>0</v>
@@ -6719,16 +6725,16 @@
         <v>165</v>
       </c>
       <c r="B72" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C72" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D72" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F72" s="5" t="b">
         <v>0</v>
@@ -6754,7 +6760,7 @@
         <v>173</v>
       </c>
       <c r="B73" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C73" s="115" t="s">
         <v>53</v>
@@ -6763,7 +6769,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F73" s="5" t="b">
         <v>0</v>
@@ -6789,16 +6795,16 @@
         <v>174</v>
       </c>
       <c r="B74" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D74" s="85" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E74" s="82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F74" s="5" t="b">
         <v>1</v>
@@ -6824,16 +6830,16 @@
         <v>160</v>
       </c>
       <c r="B75" s="78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C75" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D75" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E75" s="82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F75" s="6" t="b">
         <v>0</v>
@@ -6863,16 +6869,16 @@
         <v>160</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C76" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D76" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E76" s="82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F76" s="6" t="b">
         <v>0</v>
@@ -6902,16 +6908,16 @@
         <v>160</v>
       </c>
       <c r="B77" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" s="125" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D77" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E77" s="82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F77" s="6" t="b">
         <v>0</v>
@@ -6941,16 +6947,16 @@
         <v>160</v>
       </c>
       <c r="B78" s="78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C78" s="125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D78" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E78" s="82" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F78" s="6" t="b">
         <v>0</v>
@@ -6980,16 +6986,16 @@
         <v>160</v>
       </c>
       <c r="B79" s="78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C79" s="126" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D79" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E79" s="94" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F79" s="6" t="b">
         <v>1</v>
@@ -7019,16 +7025,16 @@
         <v>161</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="117" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D80" s="85" t="s">
         <v>76</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F80" s="3" t="b">
         <v>0</v>
@@ -7054,16 +7060,16 @@
         <v>162</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C81" s="117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D81" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F81" s="3" t="b">
         <v>0</v>
@@ -7089,16 +7095,16 @@
         <v>163</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C82" s="117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D82" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E82" s="82" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F82" s="3" t="b">
         <v>0</v>
@@ -7124,7 +7130,7 @@
         <v>164</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C83" s="117" t="s">
         <v>52</v>
@@ -7133,7 +7139,7 @@
         <v>30</v>
       </c>
       <c r="E83" s="82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F83" s="3" t="b">
         <v>0</v>
@@ -7159,16 +7165,16 @@
         <v>165</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C84" s="115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D84" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F84" s="3" t="b">
         <v>0</v>
@@ -7194,7 +7200,7 @@
         <v>173</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85" s="117" t="s">
         <v>53</v>
@@ -7203,7 +7209,7 @@
         <v>30</v>
       </c>
       <c r="E85" s="82" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F85" s="3" t="b">
         <v>0</v>
@@ -7229,16 +7235,16 @@
         <v>174</v>
       </c>
       <c r="B86" s="77" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C86" s="127" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D86" s="86" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E86" s="97" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F86" s="7" t="b">
         <v>1</v>
@@ -7264,16 +7270,16 @@
         <v>160</v>
       </c>
       <c r="B87" s="98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C87" s="128" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D87" s="84" t="s">
         <v>76</v>
       </c>
       <c r="E87" s="94" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F87" s="6" t="b">
         <v>1</v>
@@ -7303,16 +7309,16 @@
         <v>161</v>
       </c>
       <c r="B88" s="99" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C88" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F88" s="3" t="b">
         <v>0</v>
@@ -7338,16 +7344,16 @@
         <v>162</v>
       </c>
       <c r="B89" s="99" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C89" s="117" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D89" s="85" t="s">
         <v>30</v>
       </c>
       <c r="E89" s="82" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F89" s="3" t="b">
         <v>0</v>
@@ -7373,16 +7379,16 @@
         <v>163</v>
       </c>
       <c r="B90" s="100" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C90" s="127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" s="86" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E90" s="97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F90" s="7" t="b">
         <v>1</v>
@@ -7983,7 +7989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7880433F-243B-4802-A894-88FA2956B0D6}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -8001,33 +8007,33 @@
         <v>144</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="130"/>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="114" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="15.75">
       <c r="A4" s="114" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8039,19 +8045,19 @@
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="114" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="130"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
       <c r="A6" s="114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="130"/>
       <c r="F6"/>
@@ -8064,19 +8070,19 @@
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="114" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C7" s="130"/>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="114" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B8" s="131" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="130"/>
     </row>
@@ -8085,7 +8091,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C9" s="130"/>
       <c r="F9"/>
@@ -8101,7 +8107,7 @@
         <v>130</v>
       </c>
       <c r="B10" s="131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C10" s="130"/>
       <c r="F10"/>
@@ -8117,7 +8123,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C11" s="130"/>
       <c r="F11"/>
@@ -8130,10 +8136,10 @@
     </row>
     <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -8248,8 +8254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80ACC4C-E0D6-4880-9BEF-704B4B20E70B}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="I16" sqref="I16"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8263,13 +8269,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="C1" s="88" t="s">
         <v>233</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>234</v>
       </c>
       <c r="D1" s="88" t="s">
         <v>126</v>
@@ -8284,10 +8290,10 @@
         <v>92</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
@@ -8694,7 +8700,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="71">
         <v>44408</v>
       </c>
@@ -8704,8 +8710,20 @@
       <c r="C17" s="71">
         <v>44408</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
+      <c r="F17" s="71">
+        <v>44423</v>
+      </c>
+      <c r="G17" s="71">
+        <v>44545</v>
+      </c>
+      <c r="H17" s="71">
+        <v>44789</v>
+      </c>
+      <c r="I17" s="71">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="71">
         <v>44439</v>
       </c>
@@ -8714,6 +8732,18 @@
       </c>
       <c r="C18" s="71">
         <v>44439</v>
+      </c>
+      <c r="F18" s="71">
+        <v>44438</v>
+      </c>
+      <c r="G18" s="71">
+        <v>44545</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>584</v>
+      </c>
+      <c r="I18" s="71">
+        <v>44803</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75">
@@ -8901,507 +8931,520 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F5028-AD60-4C91-9CB5-C7DD50B0D883}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="147" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="152" customWidth="1"/>
-    <col min="13" max="13" width="9" style="148"/>
-    <col min="16" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="156"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="147" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="152" customWidth="1"/>
+    <col min="14" max="14" width="9" style="148"/>
+    <col min="17" max="17" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="143" t="s">
-        <v>234</v>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="155" t="s">
+        <v>138</v>
       </c>
       <c r="B1" s="143" t="s">
-        <v>570</v>
-      </c>
-      <c r="C1" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="144" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" s="144" t="s">
+        <v>563</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="I1" s="150" t="s">
+        <v>565</v>
+      </c>
+      <c r="J1" s="150" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="15.75">
+      <c r="B2" t="s">
         <v>568</v>
       </c>
-      <c r="D1" s="144" t="s">
-        <v>569</v>
-      </c>
-      <c r="E1" s="146" t="s">
-        <v>573</v>
-      </c>
-      <c r="G1" s="150" t="s">
-        <v>572</v>
-      </c>
-      <c r="H1" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="I1" s="150" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
-      <c r="A2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="71">
+      <c r="D2" s="71">
         <v>44027</v>
       </c>
-      <c r="D2" s="71">
-        <f>EDATE(C2,3)</f>
+      <c r="E2" s="71">
+        <f>EDATE(D2,3)</f>
         <v>44119</v>
       </c>
-      <c r="E2" s="149">
-        <f t="shared" si="0" ref="E2:E15">L2*12</f>
+      <c r="F2" s="149">
+        <f t="shared" si="0" ref="F2:F15">M2*12</f>
         <v>3.0246575342465754</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="H2" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="71">
+      <c r="I2" s="71">
         <v>44027</v>
       </c>
-      <c r="I2" s="151">
+      <c r="J2" s="151">
         <v>20</v>
       </c>
-      <c r="K2">
-        <f>D2-C2</f>
+      <c r="L2">
+        <f>E2-D2</f>
         <v>92</v>
       </c>
-      <c r="L2">
-        <f>K2/365</f>
+      <c r="M2">
+        <f>L2/365</f>
         <v>0.25205479452054796</v>
       </c>
-      <c r="P2" s="71">
-        <f>EDATE(C2,48)</f>
+      <c r="Q2" s="71">
+        <f>EDATE(D2,48)</f>
         <v>45488</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
-      <c r="A3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:13" ht="15.75">
+      <c r="B3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="71">
+      <c r="D3" s="71">
         <v>44119</v>
       </c>
-      <c r="D3" s="71">
-        <f>EDATE(C2,9)</f>
+      <c r="E3" s="71">
+        <f>EDATE(D2,9)</f>
         <v>44301</v>
       </c>
-      <c r="E3" s="149">
+      <c r="F3" s="149">
         <f t="shared" si="0"/>
         <v>5.9835616438356167</v>
       </c>
-      <c r="G3" s="145" t="s">
-        <v>576</v>
-      </c>
-      <c r="H3" s="71">
-        <f>EDATE(H2,3)</f>
+      <c r="H3" s="145" t="s">
+        <v>570</v>
+      </c>
+      <c r="I3" s="71">
+        <f>EDATE(I2,3)</f>
         <v>44119</v>
       </c>
-      <c r="I3" s="151">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1" ref="K3:K15">D3-C3</f>
+      <c r="J3" s="151">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1" ref="L3:L15">E3-D3</f>
         <v>182</v>
       </c>
-      <c r="L3">
-        <f t="shared" si="2" ref="L3:L15">K3/365</f>
+      <c r="M3">
+        <f t="shared" si="2" ref="M3:M15">L3/365</f>
         <v>0.49863013698630138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" t="s">
-        <v>574</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:13" ht="15.75">
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="71">
-        <f>D3</f>
+      <c r="D4" s="71">
+        <f>E3</f>
         <v>44301</v>
       </c>
-      <c r="D4" s="71">
-        <f>EDATE(C2,12)</f>
+      <c r="E4" s="71">
+        <f>EDATE(D2,12)</f>
         <v>44392</v>
       </c>
-      <c r="E4" s="149">
+      <c r="F4" s="149">
         <f t="shared" si="0"/>
         <v>2.9917808219178084</v>
       </c>
-      <c r="G4" s="145" t="s">
-        <v>577</v>
-      </c>
-      <c r="H4" s="71">
-        <f>EDATE(H2,9)</f>
+      <c r="H4" s="145" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="71">
+        <f>EDATE(I2,9)</f>
         <v>44301</v>
       </c>
-      <c r="I4" s="151">
+      <c r="J4" s="151">
         <v>25</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="2"/>
         <v>0.24931506849315069</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
-      <c r="A5" t="s">
-        <v>574</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="71">
+    <row r="5" spans="2:13" ht="15.75">
+      <c r="B5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" s="71">
         <v>44393</v>
       </c>
-      <c r="D5" s="71">
-        <f>EDATE(C2,21)</f>
+      <c r="E5" s="71">
+        <f>EDATE(D2,21)</f>
         <v>44666</v>
       </c>
-      <c r="E5" s="149">
+      <c r="F5" s="149">
         <f t="shared" si="0"/>
         <v>8.9753424657534246</v>
       </c>
-      <c r="G5" s="145" t="s">
-        <v>578</v>
-      </c>
-      <c r="H5" s="71">
-        <f>EDATE(H2,12)</f>
+      <c r="H5" s="145" t="s">
+        <v>572</v>
+      </c>
+      <c r="I5" s="71">
+        <f>EDATE(I2,12)</f>
         <v>44392</v>
       </c>
-      <c r="I5" s="151">
+      <c r="J5" s="151">
         <v>-25</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="2"/>
         <v>0.74794520547945209</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" t="s">
-        <v>574</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" s="71">
+    <row r="6" spans="2:13" ht="15.75">
+      <c r="B6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" s="71">
         <v>44667</v>
       </c>
-      <c r="D6" s="71">
-        <f>EDATE($C$2,34)</f>
+      <c r="E6" s="71">
+        <f>EDATE($D$2,34)</f>
         <v>45061</v>
       </c>
-      <c r="E6" s="149">
+      <c r="F6" s="149">
         <f t="shared" si="0"/>
         <v>12.953424657534246</v>
       </c>
-      <c r="G6" s="145" t="s">
-        <v>583</v>
-      </c>
-      <c r="H6" s="71">
-        <f>EDATE(H2,21)</f>
+      <c r="H6" s="145" t="s">
+        <v>577</v>
+      </c>
+      <c r="I6" s="71">
+        <f>EDATE(I2,21)</f>
         <v>44666</v>
       </c>
-      <c r="I6" s="151">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="151">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>394</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>1.0794520547945206</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:13" ht="15.75">
+      <c r="B7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="71">
-        <f>D6</f>
+      <c r="D7" s="71">
+        <f>E6</f>
         <v>45061</v>
       </c>
-      <c r="D7" s="71">
-        <f>EDATE(C2,38)</f>
+      <c r="E7" s="71">
+        <f>EDATE(D2,38)</f>
         <v>45184</v>
       </c>
-      <c r="E7" s="149">
+      <c r="F7" s="149">
         <f t="shared" si="0"/>
         <v>4.043835616438356</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="H7" s="71">
-        <f>C7</f>
+      <c r="H7" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="I7" s="71">
+        <f>D7</f>
         <v>45061</v>
       </c>
-      <c r="I7" s="151">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="151">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="2"/>
         <v>0.33698630136986302</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" t="s">
-        <v>574</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C8" s="71">
+    <row r="8" spans="2:13" ht="15.75">
+      <c r="B8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" s="71">
         <v>45184</v>
       </c>
-      <c r="D8" s="71">
-        <f>EDATE(C2,42)</f>
+      <c r="E8" s="71">
+        <f>EDATE(D2,42)</f>
         <v>45306</v>
       </c>
-      <c r="E8" s="149">
+      <c r="F8" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H8" s="71">
+      <c r="H8" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I8" s="71">
         <v>45184</v>
       </c>
-      <c r="I8" s="151">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" s="151">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="2"/>
         <v>0.33424657534246577</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
-      <c r="A9" t="s">
-        <v>575</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:13" ht="15.75">
+      <c r="B9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="71">
+      <c r="D9" s="71">
         <v>44027</v>
       </c>
-      <c r="D9" s="71">
+      <c r="E9" s="71">
         <v>44256</v>
       </c>
-      <c r="E9" s="149">
+      <c r="F9" s="149">
         <f t="shared" si="0"/>
         <v>7.5287671232876709</v>
       </c>
-      <c r="I9" s="151"/>
-      <c r="K9">
+      <c r="J9" s="151"/>
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="2"/>
         <v>0.62739726027397258</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
-      <c r="A10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:13" ht="15.75">
+      <c r="B10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="71">
+      <c r="D10" s="71">
         <v>44256</v>
       </c>
-      <c r="D10" s="71">
+      <c r="E10" s="71">
         <v>44438</v>
       </c>
-      <c r="E10" s="149">
+      <c r="F10" s="149">
         <f t="shared" si="0"/>
         <v>5.9835616438356167</v>
       </c>
-      <c r="I10" s="151"/>
-      <c r="K10">
+      <c r="J10" s="151"/>
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="2"/>
         <v>0.49863013698630138</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
-      <c r="A11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:13" ht="15.75">
+      <c r="B11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="71">
+      <c r="D11" s="71">
         <v>44438</v>
       </c>
-      <c r="D11" s="71">
+      <c r="E11" s="71">
         <v>44530</v>
       </c>
-      <c r="E11" s="149">
+      <c r="F11" s="149">
         <f t="shared" si="0"/>
         <v>3.0246575342465754</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="K11">
+      <c r="J11" s="151"/>
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="2"/>
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" t="s">
+    <row r="12" spans="2:13" ht="15.75">
+      <c r="B12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" s="71">
+      <c r="D12" s="71">
         <v>44531</v>
       </c>
-      <c r="D12" s="71">
+      <c r="E12" s="71">
         <v>44804</v>
       </c>
-      <c r="E12" s="149">
+      <c r="F12" s="149">
         <f t="shared" si="0"/>
         <v>8.9753424657534246</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="K12">
+      <c r="J12" s="151"/>
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="2"/>
         <v>0.74794520547945209</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C13" s="71">
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" s="156" t="s">
+        <v>581</v>
+      </c>
+      <c r="B13" t="s">
+        <v>569</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D13" s="71">
         <v>44804</v>
       </c>
-      <c r="D13" s="71">
+      <c r="E13" s="71">
         <v>45062</v>
       </c>
-      <c r="E13" s="149">
+      <c r="F13" s="149">
         <f t="shared" si="0"/>
         <v>8.4821917808219176</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="K13">
+      <c r="J13" s="151"/>
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="2"/>
         <v>0.70684931506849313</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" s="156" t="s">
+        <v>582</v>
+      </c>
+      <c r="B14" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="71">
+      <c r="D14" s="71">
         <v>45062</v>
       </c>
-      <c r="D14" s="71">
+      <c r="E14" s="71">
         <v>45184</v>
       </c>
-      <c r="E14" s="149">
+      <c r="F14" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
-      <c r="I14" s="151"/>
-      <c r="K14">
+      <c r="J14" s="151"/>
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="2"/>
         <v>0.33424657534246577</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C15" s="71">
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" s="156" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="71">
         <v>45184</v>
       </c>
-      <c r="D15" s="71">
+      <c r="E15" s="71">
         <v>45306</v>
       </c>
-      <c r="E15" s="149">
+      <c r="F15" s="149">
         <f t="shared" si="0"/>
         <v>4.0109589041095894</v>
       </c>
-      <c r="I15" s="151"/>
-      <c r="K15">
+      <c r="J15" s="151"/>
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="2"/>
         <v>0.33424657534246577</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H15"/>
+  <autoFilter ref="B1:I15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -9926,945 +9969,945 @@
         <v>138</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C1" s="109" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A2" s="103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B2" s="103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A3" s="103" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A4" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A5" s="103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A6" s="103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A7" s="103" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A8" s="103" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C8" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A9" s="103" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B9" s="103" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C9" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A10" s="103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A11" s="103" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B11" s="103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C11" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A12" s="103" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A13" s="103" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A14" s="103" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C14" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A15" s="103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C15" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A16" s="103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C16" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A17" s="103" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B17" s="103" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A18" s="103" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B18" s="103" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C18" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A19" s="103" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C19" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A20" s="103" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B20" s="103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C20" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A21" s="103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B21" s="103" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C21" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A22" s="103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A23" s="103" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B23" s="103" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A24" s="103" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B24" s="103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A25" s="103" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A26" s="103" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B26" s="103" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A27" s="103" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A28" s="103" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A29" s="103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B29" s="103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A30" s="103" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A31" s="103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B31" s="103" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A32" s="103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B32" s="103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A33" s="103" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A34" s="103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B34" s="103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C34" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A35" s="103" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B35" s="103" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C35" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A36" s="103" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B36" s="103" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C36" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A37" s="103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B37" s="103" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A38" s="103" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B38" s="103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C38" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A39" s="103" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" s="103" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C39" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A40" s="103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B40" s="103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C40" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A41" s="103" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B41" s="103" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C41" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A42" s="103" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B42" s="103" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C42" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A43" s="103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B43" s="103" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C43" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A44" s="103" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B44" s="103" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C44" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A45" s="103" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B45" s="103" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C45" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A46" s="103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B46" s="103" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C46" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A47" s="103" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B47" s="103" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C47" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A48" s="103" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C48" s="110" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A49" s="103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" s="103" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C49" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A50" s="103" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B50" s="103" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C50" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A51" s="103" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B51" s="103" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C51" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A52" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B52" s="103" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C52" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A53" s="103" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B53" s="103" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A54" s="103" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B54" s="103" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C54" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A55" s="103" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B55" s="103" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C55" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A56" s="103" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B56" s="103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C56" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A57" s="103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B57" s="103" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C57" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A58" s="103" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B58" s="103" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C58" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A59" s="103" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B59" s="103" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C59" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A60" s="103" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" s="103" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C60" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="103" customFormat="1" ht="30">
       <c r="A61" s="103" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B61" s="103" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C61" s="110" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A62" s="103" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B62" s="103" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C62" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="103" customFormat="1" ht="60">
       <c r="A63" s="103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B63" s="103" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C63" s="110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A64" s="103" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B64" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C64" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A65" s="103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C65" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A66" s="103" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B66" s="103" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C66" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A67" s="103" t="s">
+        <v>423</v>
+      </c>
+      <c r="B67" s="103" t="s">
         <v>425</v>
       </c>
-      <c r="B67" s="103" t="s">
-        <v>427</v>
-      </c>
       <c r="C67" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A68" s="103" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B68" s="103" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C68" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A69" s="103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B69" s="103" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C69" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A70" s="103" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B70" s="103" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C70" s="110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="103" customFormat="1" ht="15.75">
       <c r="A71" s="103" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B71" s="103" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C71" s="111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A72" s="103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B72" s="103" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C72" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A73" s="103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B73" s="103" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C73" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A74" s="103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B74" s="103" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C74" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A75" s="103" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B75" s="103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C75" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A76" s="103" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B76" s="103" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C76" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A77" s="103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B77" s="103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C77" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A78" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B78" s="103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C78" s="110" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A79" s="103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B79" s="103" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C79" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A80" s="103" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B80" s="103" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A81" s="103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B81" s="103" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C81" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A82" s="103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B82" s="103" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C82" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A83" s="103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B83" s="103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C83" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A84" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B84" s="103" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C84" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A85" s="103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B85" s="103" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C85" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="103" customFormat="1" ht="45">
       <c r="A86" s="103" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B86" s="103" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C86" s="110" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
